--- a/BackTest/2020-01-23 BackTest MCO.xlsx
+++ b/BackTest/2020-01-23 BackTest MCO.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M129"/>
+  <dimension ref="A1:N129"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,6 +427,11 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_gap</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -454,7 +459,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
@@ -462,6 +467,7 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -489,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
@@ -497,6 +503,7 @@
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -532,6 +539,7 @@
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -559,7 +567,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
@@ -567,6 +575,7 @@
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,6 +611,7 @@
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -637,6 +647,7 @@
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -672,6 +683,7 @@
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -707,6 +719,7 @@
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -742,6 +755,7 @@
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -777,6 +791,7 @@
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -812,6 +827,7 @@
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -847,6 +863,7 @@
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -874,7 +891,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
@@ -882,6 +899,7 @@
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -909,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
@@ -917,6 +935,7 @@
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -944,7 +963,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
@@ -952,6 +971,7 @@
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -979,7 +999,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
@@ -987,6 +1007,7 @@
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1014,7 +1035,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
@@ -1022,6 +1043,7 @@
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1049,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
@@ -1057,6 +1079,7 @@
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1084,7 +1107,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
@@ -1092,6 +1115,7 @@
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1119,7 +1143,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
@@ -1127,6 +1151,7 @@
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1162,6 +1187,7 @@
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1189,7 +1215,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
@@ -1197,6 +1223,7 @@
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1224,7 +1251,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
@@ -1232,6 +1259,7 @@
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1259,7 +1287,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
@@ -1267,6 +1295,7 @@
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1294,7 +1323,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
@@ -1302,6 +1331,7 @@
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1329,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
@@ -1337,6 +1367,7 @@
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1364,7 +1395,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
@@ -1372,6 +1403,7 @@
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1407,6 +1439,7 @@
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1442,6 +1475,7 @@
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1477,6 +1511,7 @@
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1512,6 +1547,7 @@
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1547,6 +1583,7 @@
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1582,6 +1619,7 @@
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1617,6 +1655,7 @@
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1652,6 +1691,7 @@
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1687,6 +1727,7 @@
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1722,6 +1763,7 @@
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1757,6 +1799,7 @@
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1792,6 +1835,7 @@
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1827,6 +1871,7 @@
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1862,6 +1907,7 @@
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1897,6 +1943,7 @@
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1932,6 +1979,7 @@
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1967,6 +2015,7 @@
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2002,6 +2051,7 @@
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2037,6 +2087,7 @@
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2072,6 +2123,7 @@
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2107,6 +2159,7 @@
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2142,6 +2195,7 @@
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2177,6 +2231,7 @@
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2212,6 +2267,7 @@
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2247,6 +2303,7 @@
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2288,6 +2345,7 @@
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2329,6 +2387,7 @@
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2370,6 +2429,7 @@
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2409,6 +2469,7 @@
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2448,6 +2509,7 @@
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2487,6 +2549,7 @@
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2528,6 +2591,7 @@
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2569,6 +2633,7 @@
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2610,6 +2675,7 @@
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2651,6 +2717,7 @@
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2692,6 +2759,7 @@
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2731,6 +2799,7 @@
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2772,6 +2841,7 @@
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2811,6 +2881,7 @@
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2850,6 +2921,7 @@
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2891,6 +2963,7 @@
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2930,6 +3003,7 @@
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2969,6 +3043,7 @@
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3008,6 +3083,7 @@
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3047,6 +3123,7 @@
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3086,6 +3163,7 @@
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3125,6 +3203,7 @@
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3164,6 +3243,7 @@
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3203,6 +3283,7 @@
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3242,6 +3323,7 @@
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3281,6 +3363,7 @@
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3320,6 +3403,7 @@
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3359,6 +3443,7 @@
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3398,6 +3483,7 @@
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3437,6 +3523,7 @@
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3476,6 +3563,7 @@
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3515,6 +3603,7 @@
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3554,6 +3643,7 @@
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3593,6 +3683,7 @@
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3632,6 +3723,7 @@
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3671,6 +3763,7 @@
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3710,6 +3803,7 @@
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3749,6 +3843,7 @@
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3788,6 +3883,7 @@
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3827,6 +3923,7 @@
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3866,6 +3963,7 @@
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3905,6 +4003,7 @@
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3944,6 +4043,7 @@
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3983,6 +4083,7 @@
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4022,6 +4123,7 @@
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4061,6 +4163,7 @@
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4100,6 +4203,7 @@
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4139,6 +4243,7 @@
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4178,6 +4283,7 @@
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4217,6 +4323,7 @@
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4256,6 +4363,7 @@
       <c r="M104" t="n">
         <v>1</v>
       </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4295,6 +4403,7 @@
       <c r="M105" t="n">
         <v>1</v>
       </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4334,6 +4443,7 @@
       <c r="M106" t="n">
         <v>1</v>
       </c>
+      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4373,6 +4483,7 @@
       <c r="M107" t="n">
         <v>1</v>
       </c>
+      <c r="N107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4412,6 +4523,7 @@
       <c r="M108" t="n">
         <v>1</v>
       </c>
+      <c r="N108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4451,6 +4563,7 @@
       <c r="M109" t="n">
         <v>1</v>
       </c>
+      <c r="N109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4490,6 +4603,7 @@
       <c r="M110" t="n">
         <v>1</v>
       </c>
+      <c r="N110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4529,6 +4643,7 @@
       <c r="M111" t="n">
         <v>1</v>
       </c>
+      <c r="N111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4568,6 +4683,7 @@
       <c r="M112" t="n">
         <v>1</v>
       </c>
+      <c r="N112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4607,6 +4723,7 @@
       <c r="M113" t="n">
         <v>1</v>
       </c>
+      <c r="N113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4646,6 +4763,7 @@
       <c r="M114" t="n">
         <v>1</v>
       </c>
+      <c r="N114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4685,6 +4803,7 @@
       <c r="M115" t="n">
         <v>1</v>
       </c>
+      <c r="N115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4724,6 +4843,7 @@
       <c r="M116" t="n">
         <v>1</v>
       </c>
+      <c r="N116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4763,6 +4883,7 @@
       <c r="M117" t="n">
         <v>1</v>
       </c>
+      <c r="N117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4802,6 +4923,7 @@
       <c r="M118" t="n">
         <v>1</v>
       </c>
+      <c r="N118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4841,6 +4963,7 @@
       <c r="M119" t="n">
         <v>1</v>
       </c>
+      <c r="N119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4880,6 +5003,7 @@
       <c r="M120" t="n">
         <v>1</v>
       </c>
+      <c r="N120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4919,6 +5043,7 @@
       <c r="M121" t="n">
         <v>1</v>
       </c>
+      <c r="N121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4958,6 +5083,7 @@
       <c r="M122" t="n">
         <v>1</v>
       </c>
+      <c r="N122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4997,6 +5123,7 @@
       <c r="M123" t="n">
         <v>1</v>
       </c>
+      <c r="N123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5036,6 +5163,7 @@
       <c r="M124" t="n">
         <v>1</v>
       </c>
+      <c r="N124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5077,6 +5205,7 @@
       <c r="M125" t="n">
         <v>1</v>
       </c>
+      <c r="N125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5116,6 +5245,7 @@
       <c r="M126" t="n">
         <v>1</v>
       </c>
+      <c r="N126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5155,6 +5285,7 @@
       <c r="M127" t="n">
         <v>1</v>
       </c>
+      <c r="N127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5194,6 +5325,7 @@
       <c r="M128" t="n">
         <v>1</v>
       </c>
+      <c r="N128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5233,6 +5365,7 @@
       <c r="M129" t="n">
         <v>1</v>
       </c>
+      <c r="N129" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2020-01-23 BackTest MCO.xlsx
+++ b/BackTest/2020-01-23 BackTest MCO.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N129"/>
+  <dimension ref="A1:N158"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -429,7 +429,7 @@
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>Price_gap</t>
+          <t>Price_point</t>
         </is>
       </c>
     </row>
@@ -438,28 +438,28 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>5455</v>
+        <v>5525</v>
       </c>
       <c r="C2" t="n">
-        <v>5455</v>
+        <v>5530</v>
       </c>
       <c r="D2" t="n">
-        <v>5455</v>
+        <v>5530</v>
       </c>
       <c r="E2" t="n">
-        <v>5455</v>
+        <v>5525</v>
       </c>
       <c r="F2" t="n">
-        <v>332.87</v>
+        <v>36.5367</v>
       </c>
       <c r="G2" t="n">
-        <v>-2827.7604</v>
+        <v>-394.1403000000003</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
@@ -474,28 +474,28 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>5460</v>
+        <v>5530</v>
       </c>
       <c r="C3" t="n">
-        <v>5460</v>
+        <v>5530</v>
       </c>
       <c r="D3" t="n">
-        <v>5480</v>
+        <v>5530</v>
       </c>
       <c r="E3" t="n">
-        <v>5460</v>
+        <v>5530</v>
       </c>
       <c r="F3" t="n">
-        <v>157.4472</v>
+        <v>10.1162</v>
       </c>
       <c r="G3" t="n">
-        <v>-2670.3132</v>
+        <v>-394.1403000000003</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
@@ -510,28 +510,28 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>5455</v>
+        <v>5530</v>
       </c>
       <c r="C4" t="n">
-        <v>5455</v>
+        <v>5530</v>
       </c>
       <c r="D4" t="n">
-        <v>5455</v>
+        <v>5530</v>
       </c>
       <c r="E4" t="n">
-        <v>5455</v>
+        <v>5530</v>
       </c>
       <c r="F4" t="n">
-        <v>38.2687</v>
+        <v>36.4603</v>
       </c>
       <c r="G4" t="n">
-        <v>-2708.5819</v>
+        <v>-394.1403000000003</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
@@ -546,22 +546,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>5470</v>
+        <v>5530</v>
       </c>
       <c r="C5" t="n">
-        <v>5470</v>
+        <v>5530</v>
       </c>
       <c r="D5" t="n">
-        <v>5470</v>
+        <v>5530</v>
       </c>
       <c r="E5" t="n">
-        <v>5470</v>
+        <v>5530</v>
       </c>
       <c r="F5" t="n">
-        <v>152.0054</v>
+        <v>13.1624</v>
       </c>
       <c r="G5" t="n">
-        <v>-2556.5765</v>
+        <v>-394.1403000000003</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -582,22 +582,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>5470</v>
+        <v>5530</v>
       </c>
       <c r="C6" t="n">
-        <v>5470</v>
+        <v>5530</v>
       </c>
       <c r="D6" t="n">
-        <v>5470</v>
+        <v>5530</v>
       </c>
       <c r="E6" t="n">
-        <v>5470</v>
+        <v>5530</v>
       </c>
       <c r="F6" t="n">
-        <v>487.6084</v>
+        <v>80.3387</v>
       </c>
       <c r="G6" t="n">
-        <v>-2556.5765</v>
+        <v>-394.1403000000003</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -618,22 +618,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>5470</v>
+        <v>5530</v>
       </c>
       <c r="C7" t="n">
-        <v>5470</v>
+        <v>5530</v>
       </c>
       <c r="D7" t="n">
-        <v>5470</v>
+        <v>5530</v>
       </c>
       <c r="E7" t="n">
-        <v>5470</v>
+        <v>5530</v>
       </c>
       <c r="F7" t="n">
-        <v>1.3452</v>
+        <v>220.7418</v>
       </c>
       <c r="G7" t="n">
-        <v>-2556.5765</v>
+        <v>-394.1403000000003</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -654,22 +654,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>5470</v>
+        <v>5530</v>
       </c>
       <c r="C8" t="n">
-        <v>5470</v>
+        <v>5530</v>
       </c>
       <c r="D8" t="n">
-        <v>5470</v>
+        <v>5530</v>
       </c>
       <c r="E8" t="n">
-        <v>5470</v>
+        <v>5530</v>
       </c>
       <c r="F8" t="n">
-        <v>287.9984</v>
+        <v>185.7713</v>
       </c>
       <c r="G8" t="n">
-        <v>-2556.5765</v>
+        <v>-394.1403000000003</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -690,22 +690,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>5480</v>
+        <v>5530</v>
       </c>
       <c r="C9" t="n">
-        <v>5480</v>
+        <v>5530</v>
       </c>
       <c r="D9" t="n">
-        <v>5480</v>
+        <v>5530</v>
       </c>
       <c r="E9" t="n">
-        <v>5480</v>
+        <v>5530</v>
       </c>
       <c r="F9" t="n">
-        <v>50.7817</v>
+        <v>54.24954792</v>
       </c>
       <c r="G9" t="n">
-        <v>-2505.7948</v>
+        <v>-394.1403000000003</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -726,22 +726,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>5480</v>
+        <v>5530</v>
       </c>
       <c r="C10" t="n">
-        <v>5480</v>
+        <v>5530</v>
       </c>
       <c r="D10" t="n">
-        <v>5480</v>
+        <v>5530</v>
       </c>
       <c r="E10" t="n">
-        <v>5480</v>
+        <v>5530</v>
       </c>
       <c r="F10" t="n">
-        <v>180</v>
+        <v>0.5</v>
       </c>
       <c r="G10" t="n">
-        <v>-2505.7948</v>
+        <v>-394.1403000000003</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -762,22 +762,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>5465</v>
+        <v>5530</v>
       </c>
       <c r="C11" t="n">
-        <v>5465</v>
+        <v>5530</v>
       </c>
       <c r="D11" t="n">
-        <v>5465</v>
+        <v>5530</v>
       </c>
       <c r="E11" t="n">
-        <v>5465</v>
+        <v>5530</v>
       </c>
       <c r="F11" t="n">
-        <v>16.8295</v>
+        <v>198.1946</v>
       </c>
       <c r="G11" t="n">
-        <v>-2522.6243</v>
+        <v>-394.1403000000003</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -798,22 +798,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>5465</v>
+        <v>5515</v>
       </c>
       <c r="C12" t="n">
-        <v>5475</v>
+        <v>5515</v>
       </c>
       <c r="D12" t="n">
-        <v>5475</v>
+        <v>5515</v>
       </c>
       <c r="E12" t="n">
-        <v>5465</v>
+        <v>5515</v>
       </c>
       <c r="F12" t="n">
-        <v>220.2381</v>
+        <v>95.5175</v>
       </c>
       <c r="G12" t="n">
-        <v>-2302.3862</v>
+        <v>-489.6578000000002</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -834,22 +834,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>5465</v>
+        <v>5515</v>
       </c>
       <c r="C13" t="n">
-        <v>5465</v>
+        <v>5510</v>
       </c>
       <c r="D13" t="n">
-        <v>5465</v>
+        <v>5515</v>
       </c>
       <c r="E13" t="n">
-        <v>5465</v>
+        <v>5510</v>
       </c>
       <c r="F13" t="n">
-        <v>39.2781</v>
+        <v>95.32980000000001</v>
       </c>
       <c r="G13" t="n">
-        <v>-2341.6643</v>
+        <v>-584.9876000000003</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -870,22 +870,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>5455</v>
+        <v>5510</v>
       </c>
       <c r="C14" t="n">
-        <v>5455</v>
+        <v>5510</v>
       </c>
       <c r="D14" t="n">
-        <v>5455</v>
+        <v>5510</v>
       </c>
       <c r="E14" t="n">
-        <v>5455</v>
+        <v>5510</v>
       </c>
       <c r="F14" t="n">
-        <v>159</v>
+        <v>67.941</v>
       </c>
       <c r="G14" t="n">
-        <v>-2500.6643</v>
+        <v>-584.9876000000003</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -906,22 +906,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>5455</v>
+        <v>5510</v>
       </c>
       <c r="C15" t="n">
-        <v>5455</v>
+        <v>5480</v>
       </c>
       <c r="D15" t="n">
-        <v>5455</v>
+        <v>5510</v>
       </c>
       <c r="E15" t="n">
-        <v>5455</v>
+        <v>5480</v>
       </c>
       <c r="F15" t="n">
-        <v>68.2567</v>
+        <v>915.1201</v>
       </c>
       <c r="G15" t="n">
-        <v>-2500.6643</v>
+        <v>-1500.1077</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -942,22 +942,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>5455</v>
+        <v>5510</v>
       </c>
       <c r="C16" t="n">
-        <v>5455</v>
+        <v>5510</v>
       </c>
       <c r="D16" t="n">
-        <v>5455</v>
+        <v>5510</v>
       </c>
       <c r="E16" t="n">
-        <v>5455</v>
+        <v>5510</v>
       </c>
       <c r="F16" t="n">
-        <v>79.7205</v>
+        <v>31.3861</v>
       </c>
       <c r="G16" t="n">
-        <v>-2500.6643</v>
+        <v>-1468.7216</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -978,22 +978,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>5455</v>
+        <v>5510</v>
       </c>
       <c r="C17" t="n">
-        <v>5450</v>
+        <v>5510</v>
       </c>
       <c r="D17" t="n">
-        <v>5455</v>
+        <v>5510</v>
       </c>
       <c r="E17" t="n">
-        <v>5450</v>
+        <v>5510</v>
       </c>
       <c r="F17" t="n">
-        <v>481.8447</v>
+        <v>43.7453</v>
       </c>
       <c r="G17" t="n">
-        <v>-2982.509</v>
+        <v>-1468.7216</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1014,22 +1014,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>5450</v>
+        <v>5485</v>
       </c>
       <c r="C18" t="n">
-        <v>5455</v>
+        <v>5485</v>
       </c>
       <c r="D18" t="n">
-        <v>5465</v>
+        <v>5485</v>
       </c>
       <c r="E18" t="n">
-        <v>5450</v>
+        <v>5485</v>
       </c>
       <c r="F18" t="n">
-        <v>109.2249</v>
+        <v>14.2593</v>
       </c>
       <c r="G18" t="n">
-        <v>-2873.2841</v>
+        <v>-1482.9809</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1050,28 +1050,28 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>5455</v>
+        <v>5485</v>
       </c>
       <c r="C19" t="n">
         <v>5455</v>
       </c>
       <c r="D19" t="n">
-        <v>5455</v>
+        <v>5485</v>
       </c>
       <c r="E19" t="n">
         <v>5455</v>
       </c>
       <c r="F19" t="n">
-        <v>103.5748</v>
+        <v>1292.207</v>
       </c>
       <c r="G19" t="n">
-        <v>-2873.2841</v>
+        <v>-2775.1879</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
@@ -1086,28 +1086,28 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>5465</v>
+        <v>5485</v>
       </c>
       <c r="C20" t="n">
-        <v>5465</v>
+        <v>5485</v>
       </c>
       <c r="D20" t="n">
-        <v>5465</v>
+        <v>5485</v>
       </c>
       <c r="E20" t="n">
-        <v>5465</v>
+        <v>5485</v>
       </c>
       <c r="F20" t="n">
-        <v>0.092</v>
+        <v>7.2782</v>
       </c>
       <c r="G20" t="n">
-        <v>-2873.1921</v>
+        <v>-2767.9097</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
@@ -1122,28 +1122,28 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>5460</v>
+        <v>5485</v>
       </c>
       <c r="C21" t="n">
-        <v>5460</v>
+        <v>5485</v>
       </c>
       <c r="D21" t="n">
-        <v>5460</v>
+        <v>5485</v>
       </c>
       <c r="E21" t="n">
-        <v>5460</v>
+        <v>5485</v>
       </c>
       <c r="F21" t="n">
-        <v>37.3015</v>
+        <v>298.2332</v>
       </c>
       <c r="G21" t="n">
-        <v>-2910.4936</v>
+        <v>-2767.9097</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
@@ -1158,28 +1158,28 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>5460</v>
+        <v>5485</v>
       </c>
       <c r="C22" t="n">
-        <v>5460</v>
+        <v>5470</v>
       </c>
       <c r="D22" t="n">
-        <v>5460</v>
+        <v>5485</v>
       </c>
       <c r="E22" t="n">
-        <v>5450</v>
+        <v>5470</v>
       </c>
       <c r="F22" t="n">
-        <v>120.1694</v>
+        <v>16.8001</v>
       </c>
       <c r="G22" t="n">
-        <v>-2910.4936</v>
+        <v>-2784.7098</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
@@ -1197,25 +1197,25 @@
         <v>5465</v>
       </c>
       <c r="C23" t="n">
-        <v>5465</v>
+        <v>5470</v>
       </c>
       <c r="D23" t="n">
-        <v>5465</v>
+        <v>5470</v>
       </c>
       <c r="E23" t="n">
         <v>5465</v>
       </c>
       <c r="F23" t="n">
-        <v>0.092</v>
+        <v>267.4344</v>
       </c>
       <c r="G23" t="n">
-        <v>-2910.4016</v>
+        <v>-2784.7098</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
@@ -1230,28 +1230,28 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>5460</v>
+        <v>5480</v>
       </c>
       <c r="C24" t="n">
-        <v>5450</v>
+        <v>5480</v>
       </c>
       <c r="D24" t="n">
-        <v>5460</v>
+        <v>5480</v>
       </c>
       <c r="E24" t="n">
-        <v>5450</v>
+        <v>5480</v>
       </c>
       <c r="F24" t="n">
-        <v>5.7001</v>
+        <v>0.1</v>
       </c>
       <c r="G24" t="n">
-        <v>-2916.1017</v>
+        <v>-2784.6098</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
@@ -1266,28 +1266,28 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>5465</v>
+        <v>5480</v>
       </c>
       <c r="C25" t="n">
-        <v>5465</v>
+        <v>5485</v>
       </c>
       <c r="D25" t="n">
-        <v>5465</v>
+        <v>5485</v>
       </c>
       <c r="E25" t="n">
-        <v>5465</v>
+        <v>5480</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0994</v>
+        <v>47.9393</v>
       </c>
       <c r="G25" t="n">
-        <v>-2916.0023</v>
+        <v>-2736.6705</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
@@ -1302,28 +1302,28 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>5465</v>
+        <v>5470</v>
       </c>
       <c r="C26" t="n">
         <v>5465</v>
       </c>
       <c r="D26" t="n">
-        <v>5465</v>
+        <v>5470</v>
       </c>
       <c r="E26" t="n">
         <v>5465</v>
       </c>
       <c r="F26" t="n">
-        <v>2</v>
+        <v>11.2</v>
       </c>
       <c r="G26" t="n">
-        <v>-2916.0023</v>
+        <v>-2747.8705</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
@@ -1350,16 +1350,16 @@
         <v>5465</v>
       </c>
       <c r="F27" t="n">
-        <v>1.3969</v>
+        <v>12.4</v>
       </c>
       <c r="G27" t="n">
-        <v>-2916.0023</v>
+        <v>-2747.8705</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
@@ -1374,28 +1374,28 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>5450</v>
+        <v>5465</v>
       </c>
       <c r="C28" t="n">
-        <v>5450</v>
+        <v>5465</v>
       </c>
       <c r="D28" t="n">
-        <v>5450</v>
+        <v>5465</v>
       </c>
       <c r="E28" t="n">
-        <v>5450</v>
+        <v>5465</v>
       </c>
       <c r="F28" t="n">
-        <v>97.7619</v>
+        <v>36</v>
       </c>
       <c r="G28" t="n">
-        <v>-3013.7642</v>
+        <v>-2747.8705</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
@@ -1410,22 +1410,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>5450</v>
+        <v>5460</v>
       </c>
       <c r="C29" t="n">
-        <v>5445</v>
+        <v>5460</v>
       </c>
       <c r="D29" t="n">
-        <v>5450</v>
+        <v>5460</v>
       </c>
       <c r="E29" t="n">
-        <v>5445</v>
+        <v>5460</v>
       </c>
       <c r="F29" t="n">
-        <v>14.9668</v>
+        <v>43.8899</v>
       </c>
       <c r="G29" t="n">
-        <v>-3028.731</v>
+        <v>-2791.7604</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1446,22 +1446,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>5445</v>
+        <v>5455</v>
       </c>
       <c r="C30" t="n">
-        <v>5435</v>
+        <v>5455</v>
       </c>
       <c r="D30" t="n">
-        <v>5445</v>
+        <v>5455</v>
       </c>
       <c r="E30" t="n">
-        <v>5435</v>
+        <v>5455</v>
       </c>
       <c r="F30" t="n">
-        <v>112.9045</v>
+        <v>36</v>
       </c>
       <c r="G30" t="n">
-        <v>-3141.6355</v>
+        <v>-2827.7604</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1482,22 +1482,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>5440</v>
+        <v>5455</v>
       </c>
       <c r="C31" t="n">
-        <v>5440</v>
+        <v>5455</v>
       </c>
       <c r="D31" t="n">
-        <v>5440</v>
+        <v>5455</v>
       </c>
       <c r="E31" t="n">
-        <v>5440</v>
+        <v>5455</v>
       </c>
       <c r="F31" t="n">
-        <v>4</v>
+        <v>332.87</v>
       </c>
       <c r="G31" t="n">
-        <v>-3137.6355</v>
+        <v>-2827.7604</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1518,22 +1518,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>5440</v>
+        <v>5460</v>
       </c>
       <c r="C32" t="n">
-        <v>5440</v>
+        <v>5460</v>
       </c>
       <c r="D32" t="n">
-        <v>5440</v>
+        <v>5480</v>
       </c>
       <c r="E32" t="n">
-        <v>5440</v>
+        <v>5460</v>
       </c>
       <c r="F32" t="n">
-        <v>1.4972</v>
+        <v>157.4472</v>
       </c>
       <c r="G32" t="n">
-        <v>-3137.6355</v>
+        <v>-2670.3132</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1554,22 +1554,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>5450</v>
+        <v>5455</v>
       </c>
       <c r="C33" t="n">
-        <v>5450</v>
+        <v>5455</v>
       </c>
       <c r="D33" t="n">
-        <v>5450</v>
+        <v>5455</v>
       </c>
       <c r="E33" t="n">
-        <v>5450</v>
+        <v>5455</v>
       </c>
       <c r="F33" t="n">
-        <v>4.3916</v>
+        <v>38.2687</v>
       </c>
       <c r="G33" t="n">
-        <v>-3133.2439</v>
+        <v>-2708.5819</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1590,22 +1590,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>5460</v>
+        <v>5470</v>
       </c>
       <c r="C34" t="n">
-        <v>5460</v>
+        <v>5470</v>
       </c>
       <c r="D34" t="n">
-        <v>5460</v>
+        <v>5470</v>
       </c>
       <c r="E34" t="n">
-        <v>5460</v>
+        <v>5470</v>
       </c>
       <c r="F34" t="n">
-        <v>41.5306</v>
+        <v>152.0054</v>
       </c>
       <c r="G34" t="n">
-        <v>-3091.7133</v>
+        <v>-2556.5765</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1626,22 +1626,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>5460</v>
+        <v>5470</v>
       </c>
       <c r="C35" t="n">
-        <v>5460</v>
+        <v>5470</v>
       </c>
       <c r="D35" t="n">
-        <v>5460</v>
+        <v>5470</v>
       </c>
       <c r="E35" t="n">
-        <v>5460</v>
+        <v>5470</v>
       </c>
       <c r="F35" t="n">
-        <v>9.134600000000001</v>
+        <v>487.6084</v>
       </c>
       <c r="G35" t="n">
-        <v>-3091.7133</v>
+        <v>-2556.5765</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1662,7 +1662,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>5460</v>
+        <v>5470</v>
       </c>
       <c r="C36" t="n">
         <v>5470</v>
@@ -1671,13 +1671,13 @@
         <v>5470</v>
       </c>
       <c r="E36" t="n">
-        <v>5460</v>
+        <v>5470</v>
       </c>
       <c r="F36" t="n">
-        <v>607.6567</v>
+        <v>1.3452</v>
       </c>
       <c r="G36" t="n">
-        <v>-2484.0566</v>
+        <v>-2556.5765</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1698,7 +1698,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>5465</v>
+        <v>5470</v>
       </c>
       <c r="C37" t="n">
         <v>5470</v>
@@ -1707,13 +1707,13 @@
         <v>5470</v>
       </c>
       <c r="E37" t="n">
-        <v>5465</v>
+        <v>5470</v>
       </c>
       <c r="F37" t="n">
-        <v>230.9075</v>
+        <v>287.9984</v>
       </c>
       <c r="G37" t="n">
-        <v>-2484.0566</v>
+        <v>-2556.5765</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1734,22 +1734,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>5470</v>
+        <v>5480</v>
       </c>
       <c r="C38" t="n">
-        <v>5470</v>
+        <v>5480</v>
       </c>
       <c r="D38" t="n">
-        <v>5470</v>
+        <v>5480</v>
       </c>
       <c r="E38" t="n">
-        <v>5470</v>
+        <v>5480</v>
       </c>
       <c r="F38" t="n">
-        <v>319.1841</v>
+        <v>50.7817</v>
       </c>
       <c r="G38" t="n">
-        <v>-2484.0566</v>
+        <v>-2505.7948</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1770,22 +1770,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>5475</v>
+        <v>5480</v>
       </c>
       <c r="C39" t="n">
-        <v>5475</v>
+        <v>5480</v>
       </c>
       <c r="D39" t="n">
-        <v>5475</v>
+        <v>5480</v>
       </c>
       <c r="E39" t="n">
-        <v>5475</v>
+        <v>5480</v>
       </c>
       <c r="F39" t="n">
-        <v>0.092</v>
+        <v>180</v>
       </c>
       <c r="G39" t="n">
-        <v>-2483.9646</v>
+        <v>-2505.7948</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1806,22 +1806,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>5470</v>
+        <v>5465</v>
       </c>
       <c r="C40" t="n">
-        <v>5470</v>
+        <v>5465</v>
       </c>
       <c r="D40" t="n">
-        <v>5470</v>
+        <v>5465</v>
       </c>
       <c r="E40" t="n">
-        <v>5470</v>
+        <v>5465</v>
       </c>
       <c r="F40" t="n">
-        <v>89.3077</v>
+        <v>16.8295</v>
       </c>
       <c r="G40" t="n">
-        <v>-2573.2723</v>
+        <v>-2522.6243</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1842,22 +1842,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>5470</v>
+        <v>5465</v>
       </c>
       <c r="C41" t="n">
-        <v>5470</v>
+        <v>5475</v>
       </c>
       <c r="D41" t="n">
-        <v>5470</v>
+        <v>5475</v>
       </c>
       <c r="E41" t="n">
-        <v>5470</v>
+        <v>5465</v>
       </c>
       <c r="F41" t="n">
-        <v>13.5015</v>
+        <v>220.2381</v>
       </c>
       <c r="G41" t="n">
-        <v>-2573.2723</v>
+        <v>-2302.3862</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1878,22 +1878,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>5470</v>
+        <v>5465</v>
       </c>
       <c r="C42" t="n">
-        <v>5470</v>
+        <v>5465</v>
       </c>
       <c r="D42" t="n">
-        <v>5470</v>
+        <v>5465</v>
       </c>
       <c r="E42" t="n">
-        <v>5470</v>
+        <v>5465</v>
       </c>
       <c r="F42" t="n">
-        <v>7.0476</v>
+        <v>39.2781</v>
       </c>
       <c r="G42" t="n">
-        <v>-2573.2723</v>
+        <v>-2341.6643</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1914,22 +1914,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>5475</v>
+        <v>5455</v>
       </c>
       <c r="C43" t="n">
-        <v>5475</v>
+        <v>5455</v>
       </c>
       <c r="D43" t="n">
-        <v>5475</v>
+        <v>5455</v>
       </c>
       <c r="E43" t="n">
-        <v>5475</v>
+        <v>5455</v>
       </c>
       <c r="F43" t="n">
-        <v>0.092</v>
+        <v>159</v>
       </c>
       <c r="G43" t="n">
-        <v>-2573.1803</v>
+        <v>-2500.6643</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1950,22 +1950,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>5445</v>
+        <v>5455</v>
       </c>
       <c r="C44" t="n">
-        <v>5450</v>
+        <v>5455</v>
       </c>
       <c r="D44" t="n">
-        <v>5450</v>
+        <v>5455</v>
       </c>
       <c r="E44" t="n">
-        <v>5440</v>
+        <v>5455</v>
       </c>
       <c r="F44" t="n">
-        <v>141.1169</v>
+        <v>68.2567</v>
       </c>
       <c r="G44" t="n">
-        <v>-2714.2972</v>
+        <v>-2500.6643</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1986,22 +1986,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>5440</v>
+        <v>5455</v>
       </c>
       <c r="C45" t="n">
-        <v>5440</v>
+        <v>5455</v>
       </c>
       <c r="D45" t="n">
-        <v>5440</v>
+        <v>5455</v>
       </c>
       <c r="E45" t="n">
-        <v>5440</v>
+        <v>5455</v>
       </c>
       <c r="F45" t="n">
-        <v>17.2869</v>
+        <v>79.7205</v>
       </c>
       <c r="G45" t="n">
-        <v>-2731.5841</v>
+        <v>-2500.6643</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2022,22 +2022,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
+        <v>5455</v>
+      </c>
+      <c r="C46" t="n">
         <v>5450</v>
       </c>
-      <c r="C46" t="n">
-        <v>5400</v>
-      </c>
       <c r="D46" t="n">
-        <v>5495</v>
+        <v>5455</v>
       </c>
       <c r="E46" t="n">
-        <v>5400</v>
+        <v>5450</v>
       </c>
       <c r="F46" t="n">
-        <v>652.1522</v>
+        <v>481.8447</v>
       </c>
       <c r="G46" t="n">
-        <v>-3383.7363</v>
+        <v>-2982.509</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2058,22 +2058,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>5405</v>
+        <v>5450</v>
       </c>
       <c r="C47" t="n">
-        <v>5395</v>
+        <v>5455</v>
       </c>
       <c r="D47" t="n">
-        <v>5405</v>
+        <v>5465</v>
       </c>
       <c r="E47" t="n">
-        <v>5395</v>
+        <v>5450</v>
       </c>
       <c r="F47" t="n">
-        <v>125.3429</v>
+        <v>109.2249</v>
       </c>
       <c r="G47" t="n">
-        <v>-3509.0792</v>
+        <v>-2873.2841</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2094,22 +2094,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>5435</v>
+        <v>5455</v>
       </c>
       <c r="C48" t="n">
-        <v>5435</v>
+        <v>5455</v>
       </c>
       <c r="D48" t="n">
-        <v>5435</v>
+        <v>5455</v>
       </c>
       <c r="E48" t="n">
-        <v>5435</v>
+        <v>5455</v>
       </c>
       <c r="F48" t="n">
-        <v>5</v>
+        <v>103.5748</v>
       </c>
       <c r="G48" t="n">
-        <v>-3504.0792</v>
+        <v>-2873.2841</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2130,22 +2130,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>5435</v>
+        <v>5465</v>
       </c>
       <c r="C49" t="n">
-        <v>5435</v>
+        <v>5465</v>
       </c>
       <c r="D49" t="n">
-        <v>5435</v>
+        <v>5465</v>
       </c>
       <c r="E49" t="n">
-        <v>5435</v>
+        <v>5465</v>
       </c>
       <c r="F49" t="n">
-        <v>96</v>
+        <v>0.092</v>
       </c>
       <c r="G49" t="n">
-        <v>-3504.0792</v>
+        <v>-2873.1921</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2166,22 +2166,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>5420</v>
+        <v>5460</v>
       </c>
       <c r="C50" t="n">
-        <v>5420</v>
+        <v>5460</v>
       </c>
       <c r="D50" t="n">
-        <v>5420</v>
+        <v>5460</v>
       </c>
       <c r="E50" t="n">
-        <v>5420</v>
+        <v>5460</v>
       </c>
       <c r="F50" t="n">
-        <v>13.2</v>
+        <v>37.3015</v>
       </c>
       <c r="G50" t="n">
-        <v>-3517.279199999999</v>
+        <v>-2910.4936</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2202,22 +2202,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>5420</v>
+        <v>5460</v>
       </c>
       <c r="C51" t="n">
-        <v>5415</v>
+        <v>5460</v>
       </c>
       <c r="D51" t="n">
-        <v>5420</v>
+        <v>5460</v>
       </c>
       <c r="E51" t="n">
-        <v>5410</v>
+        <v>5450</v>
       </c>
       <c r="F51" t="n">
-        <v>117.8906</v>
+        <v>120.1694</v>
       </c>
       <c r="G51" t="n">
-        <v>-3635.1698</v>
+        <v>-2910.4936</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2238,22 +2238,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>5400</v>
+        <v>5465</v>
       </c>
       <c r="C52" t="n">
-        <v>5400</v>
+        <v>5465</v>
       </c>
       <c r="D52" t="n">
-        <v>5400</v>
+        <v>5465</v>
       </c>
       <c r="E52" t="n">
-        <v>5400</v>
+        <v>5465</v>
       </c>
       <c r="F52" t="n">
-        <v>40.3531</v>
+        <v>0.092</v>
       </c>
       <c r="G52" t="n">
-        <v>-3675.522899999999</v>
+        <v>-2910.4016</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2274,22 +2274,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>5400</v>
+        <v>5460</v>
       </c>
       <c r="C53" t="n">
-        <v>5395</v>
+        <v>5450</v>
       </c>
       <c r="D53" t="n">
-        <v>5400</v>
+        <v>5460</v>
       </c>
       <c r="E53" t="n">
-        <v>5395</v>
+        <v>5450</v>
       </c>
       <c r="F53" t="n">
-        <v>76.48180000000001</v>
+        <v>5.7001</v>
       </c>
       <c r="G53" t="n">
-        <v>-3752.0047</v>
+        <v>-2916.1017</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2310,38 +2310,32 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>5395</v>
+        <v>5465</v>
       </c>
       <c r="C54" t="n">
-        <v>5395</v>
+        <v>5465</v>
       </c>
       <c r="D54" t="n">
-        <v>5395</v>
+        <v>5465</v>
       </c>
       <c r="E54" t="n">
-        <v>5390</v>
+        <v>5465</v>
       </c>
       <c r="F54" t="n">
-        <v>112.8936</v>
+        <v>0.0994</v>
       </c>
       <c r="G54" t="n">
-        <v>-3752.0047</v>
+        <v>-2916.0023</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="n">
-        <v>5395</v>
-      </c>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2352,38 +2346,32 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>5395</v>
+        <v>5465</v>
       </c>
       <c r="C55" t="n">
-        <v>5395</v>
+        <v>5465</v>
       </c>
       <c r="D55" t="n">
-        <v>5395</v>
+        <v>5465</v>
       </c>
       <c r="E55" t="n">
-        <v>5395</v>
+        <v>5465</v>
       </c>
       <c r="F55" t="n">
-        <v>38.1717</v>
+        <v>2</v>
       </c>
       <c r="G55" t="n">
-        <v>-3752.0047</v>
+        <v>-2916.0023</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="n">
-        <v>5395</v>
-      </c>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2394,38 +2382,32 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>5415</v>
+        <v>5465</v>
       </c>
       <c r="C56" t="n">
-        <v>5430</v>
+        <v>5465</v>
       </c>
       <c r="D56" t="n">
-        <v>5430</v>
+        <v>5465</v>
       </c>
       <c r="E56" t="n">
-        <v>5415</v>
+        <v>5465</v>
       </c>
       <c r="F56" t="n">
-        <v>5.4559</v>
+        <v>1.3969</v>
       </c>
       <c r="G56" t="n">
-        <v>-3746.5488</v>
+        <v>-2916.0023</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="n">
-        <v>5395</v>
-      </c>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2436,22 +2418,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>5430</v>
+        <v>5450</v>
       </c>
       <c r="C57" t="n">
-        <v>5435</v>
+        <v>5450</v>
       </c>
       <c r="D57" t="n">
-        <v>5435</v>
+        <v>5450</v>
       </c>
       <c r="E57" t="n">
-        <v>5430</v>
+        <v>5450</v>
       </c>
       <c r="F57" t="n">
-        <v>47.1801</v>
+        <v>97.7619</v>
       </c>
       <c r="G57" t="n">
-        <v>-3699.3687</v>
+        <v>-3013.7642</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2461,11 +2443,7 @@
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2476,22 +2454,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>5410</v>
+        <v>5450</v>
       </c>
       <c r="C58" t="n">
-        <v>5415</v>
+        <v>5445</v>
       </c>
       <c r="D58" t="n">
-        <v>5415</v>
+        <v>5450</v>
       </c>
       <c r="E58" t="n">
-        <v>5410</v>
+        <v>5445</v>
       </c>
       <c r="F58" t="n">
-        <v>40.0977</v>
+        <v>14.9668</v>
       </c>
       <c r="G58" t="n">
-        <v>-3739.466399999999</v>
+        <v>-3028.731</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2501,11 +2479,7 @@
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2516,22 +2490,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>5415</v>
+        <v>5445</v>
       </c>
       <c r="C59" t="n">
-        <v>5415</v>
+        <v>5435</v>
       </c>
       <c r="D59" t="n">
-        <v>5415</v>
+        <v>5445</v>
       </c>
       <c r="E59" t="n">
-        <v>5415</v>
+        <v>5435</v>
       </c>
       <c r="F59" t="n">
-        <v>19.8466</v>
+        <v>112.9045</v>
       </c>
       <c r="G59" t="n">
-        <v>-3739.466399999999</v>
+        <v>-3141.6355</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2541,11 +2515,7 @@
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2556,38 +2526,32 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>5420</v>
+        <v>5440</v>
       </c>
       <c r="C60" t="n">
-        <v>5420</v>
+        <v>5440</v>
       </c>
       <c r="D60" t="n">
-        <v>5420</v>
+        <v>5440</v>
       </c>
       <c r="E60" t="n">
-        <v>5420</v>
+        <v>5440</v>
       </c>
       <c r="F60" t="n">
-        <v>5.9517</v>
+        <v>4</v>
       </c>
       <c r="G60" t="n">
-        <v>-3733.514699999999</v>
+        <v>-3137.6355</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="n">
-        <v>5415</v>
-      </c>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2598,38 +2562,32 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>5410</v>
+        <v>5440</v>
       </c>
       <c r="C61" t="n">
-        <v>5420</v>
+        <v>5440</v>
       </c>
       <c r="D61" t="n">
-        <v>5420</v>
+        <v>5440</v>
       </c>
       <c r="E61" t="n">
-        <v>5410</v>
+        <v>5440</v>
       </c>
       <c r="F61" t="n">
-        <v>83.5111</v>
+        <v>1.4972</v>
       </c>
       <c r="G61" t="n">
-        <v>-3733.514699999999</v>
+        <v>-3137.6355</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="n">
-        <v>5420</v>
-      </c>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2640,38 +2598,32 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>5420</v>
+        <v>5450</v>
       </c>
       <c r="C62" t="n">
-        <v>5420</v>
+        <v>5450</v>
       </c>
       <c r="D62" t="n">
-        <v>5420</v>
+        <v>5450</v>
       </c>
       <c r="E62" t="n">
-        <v>5420</v>
+        <v>5450</v>
       </c>
       <c r="F62" t="n">
-        <v>43.4886</v>
+        <v>4.3916</v>
       </c>
       <c r="G62" t="n">
-        <v>-3733.514699999999</v>
+        <v>-3133.2439</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="n">
-        <v>5420</v>
-      </c>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2682,38 +2634,32 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>5415</v>
+        <v>5460</v>
       </c>
       <c r="C63" t="n">
-        <v>5415</v>
+        <v>5460</v>
       </c>
       <c r="D63" t="n">
-        <v>5415</v>
+        <v>5460</v>
       </c>
       <c r="E63" t="n">
-        <v>5415</v>
+        <v>5460</v>
       </c>
       <c r="F63" t="n">
-        <v>17.5</v>
+        <v>41.5306</v>
       </c>
       <c r="G63" t="n">
-        <v>-3751.014699999999</v>
+        <v>-3091.7133</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="n">
-        <v>5420</v>
-      </c>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2724,38 +2670,32 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>5415</v>
+        <v>5460</v>
       </c>
       <c r="C64" t="n">
-        <v>5415</v>
+        <v>5460</v>
       </c>
       <c r="D64" t="n">
-        <v>5415</v>
+        <v>5460</v>
       </c>
       <c r="E64" t="n">
-        <v>5415</v>
+        <v>5460</v>
       </c>
       <c r="F64" t="n">
-        <v>15.356</v>
+        <v>9.134600000000001</v>
       </c>
       <c r="G64" t="n">
-        <v>-3751.014699999999</v>
+        <v>-3091.7133</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="n">
-        <v>5415</v>
-      </c>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -2766,22 +2706,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>5415</v>
+        <v>5460</v>
       </c>
       <c r="C65" t="n">
-        <v>5415</v>
+        <v>5470</v>
       </c>
       <c r="D65" t="n">
-        <v>5415</v>
+        <v>5470</v>
       </c>
       <c r="E65" t="n">
-        <v>5415</v>
+        <v>5460</v>
       </c>
       <c r="F65" t="n">
-        <v>28.1268</v>
+        <v>607.6567</v>
       </c>
       <c r="G65" t="n">
-        <v>-3751.014699999999</v>
+        <v>-2484.0566</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2791,11 +2731,7 @@
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -2806,38 +2742,32 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>5410</v>
+        <v>5465</v>
       </c>
       <c r="C66" t="n">
-        <v>5395</v>
+        <v>5470</v>
       </c>
       <c r="D66" t="n">
-        <v>5410</v>
+        <v>5470</v>
       </c>
       <c r="E66" t="n">
-        <v>5395</v>
+        <v>5465</v>
       </c>
       <c r="F66" t="n">
-        <v>207.1817</v>
+        <v>230.9075</v>
       </c>
       <c r="G66" t="n">
-        <v>-3958.196399999999</v>
+        <v>-2484.0566</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="n">
-        <v>5415</v>
-      </c>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -2848,22 +2778,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>5400</v>
+        <v>5470</v>
       </c>
       <c r="C67" t="n">
-        <v>5420</v>
+        <v>5470</v>
       </c>
       <c r="D67" t="n">
-        <v>5420</v>
+        <v>5470</v>
       </c>
       <c r="E67" t="n">
-        <v>5400</v>
+        <v>5470</v>
       </c>
       <c r="F67" t="n">
-        <v>496.305</v>
+        <v>319.1841</v>
       </c>
       <c r="G67" t="n">
-        <v>-3461.8914</v>
+        <v>-2484.0566</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2873,11 +2803,7 @@
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -2888,22 +2814,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>5425</v>
+        <v>5475</v>
       </c>
       <c r="C68" t="n">
-        <v>5425</v>
+        <v>5475</v>
       </c>
       <c r="D68" t="n">
-        <v>5425</v>
+        <v>5475</v>
       </c>
       <c r="E68" t="n">
-        <v>5425</v>
+        <v>5475</v>
       </c>
       <c r="F68" t="n">
-        <v>5.9</v>
+        <v>0.092</v>
       </c>
       <c r="G68" t="n">
-        <v>-3455.991399999999</v>
+        <v>-2483.9646</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2913,11 +2839,7 @@
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -2928,38 +2850,32 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>5425</v>
+        <v>5470</v>
       </c>
       <c r="C69" t="n">
-        <v>5430</v>
+        <v>5470</v>
       </c>
       <c r="D69" t="n">
-        <v>5430</v>
+        <v>5470</v>
       </c>
       <c r="E69" t="n">
-        <v>5425</v>
+        <v>5470</v>
       </c>
       <c r="F69" t="n">
-        <v>19.5202</v>
+        <v>89.3077</v>
       </c>
       <c r="G69" t="n">
-        <v>-3436.471199999999</v>
+        <v>-2573.2723</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="n">
-        <v>5425</v>
-      </c>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -2970,22 +2886,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>5435</v>
+        <v>5470</v>
       </c>
       <c r="C70" t="n">
-        <v>5435</v>
+        <v>5470</v>
       </c>
       <c r="D70" t="n">
-        <v>5435</v>
+        <v>5470</v>
       </c>
       <c r="E70" t="n">
-        <v>5435</v>
+        <v>5470</v>
       </c>
       <c r="F70" t="n">
-        <v>81.93689999999999</v>
+        <v>13.5015</v>
       </c>
       <c r="G70" t="n">
-        <v>-3354.534299999999</v>
+        <v>-2573.2723</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2995,11 +2911,7 @@
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -3010,22 +2922,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>5435</v>
+        <v>5470</v>
       </c>
       <c r="C71" t="n">
-        <v>5435</v>
+        <v>5470</v>
       </c>
       <c r="D71" t="n">
-        <v>5435</v>
+        <v>5470</v>
       </c>
       <c r="E71" t="n">
-        <v>5435</v>
+        <v>5470</v>
       </c>
       <c r="F71" t="n">
-        <v>105.3345</v>
+        <v>7.0476</v>
       </c>
       <c r="G71" t="n">
-        <v>-3354.534299999999</v>
+        <v>-2573.2723</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -3035,11 +2947,7 @@
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -3050,22 +2958,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>5405</v>
+        <v>5475</v>
       </c>
       <c r="C72" t="n">
-        <v>5405</v>
+        <v>5475</v>
       </c>
       <c r="D72" t="n">
-        <v>5405</v>
+        <v>5475</v>
       </c>
       <c r="E72" t="n">
-        <v>5405</v>
+        <v>5475</v>
       </c>
       <c r="F72" t="n">
-        <v>105.1989</v>
+        <v>0.092</v>
       </c>
       <c r="G72" t="n">
-        <v>-3459.733199999999</v>
+        <v>-2573.1803</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3075,11 +2983,7 @@
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -3090,22 +2994,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>5435</v>
+        <v>5445</v>
       </c>
       <c r="C73" t="n">
-        <v>5435</v>
+        <v>5450</v>
       </c>
       <c r="D73" t="n">
-        <v>5435</v>
+        <v>5450</v>
       </c>
       <c r="E73" t="n">
-        <v>5435</v>
+        <v>5440</v>
       </c>
       <c r="F73" t="n">
-        <v>24</v>
+        <v>141.1169</v>
       </c>
       <c r="G73" t="n">
-        <v>-3435.733199999999</v>
+        <v>-2714.2972</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3115,11 +3019,7 @@
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -3130,22 +3030,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>5435</v>
+        <v>5440</v>
       </c>
       <c r="C74" t="n">
-        <v>5435</v>
+        <v>5440</v>
       </c>
       <c r="D74" t="n">
-        <v>5435</v>
+        <v>5440</v>
       </c>
       <c r="E74" t="n">
-        <v>5435</v>
+        <v>5440</v>
       </c>
       <c r="F74" t="n">
-        <v>22.6766</v>
+        <v>17.2869</v>
       </c>
       <c r="G74" t="n">
-        <v>-3435.733199999999</v>
+        <v>-2731.5841</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3155,11 +3055,7 @@
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3170,22 +3066,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>5440</v>
+        <v>5450</v>
       </c>
       <c r="C75" t="n">
-        <v>5440</v>
+        <v>5400</v>
       </c>
       <c r="D75" t="n">
-        <v>5440</v>
+        <v>5495</v>
       </c>
       <c r="E75" t="n">
-        <v>5440</v>
+        <v>5400</v>
       </c>
       <c r="F75" t="n">
-        <v>4.3266</v>
+        <v>652.1522</v>
       </c>
       <c r="G75" t="n">
-        <v>-3431.406599999999</v>
+        <v>-3383.7363</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3195,11 +3091,7 @@
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3210,22 +3102,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>5450</v>
+        <v>5405</v>
       </c>
       <c r="C76" t="n">
-        <v>5450</v>
+        <v>5395</v>
       </c>
       <c r="D76" t="n">
-        <v>5450</v>
+        <v>5405</v>
       </c>
       <c r="E76" t="n">
-        <v>5450</v>
+        <v>5395</v>
       </c>
       <c r="F76" t="n">
-        <v>400</v>
+        <v>125.3429</v>
       </c>
       <c r="G76" t="n">
-        <v>-3031.406599999999</v>
+        <v>-3509.0792</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3235,11 +3127,7 @@
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3250,22 +3138,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>5465</v>
+        <v>5435</v>
       </c>
       <c r="C77" t="n">
-        <v>5465</v>
+        <v>5435</v>
       </c>
       <c r="D77" t="n">
-        <v>5465</v>
+        <v>5435</v>
       </c>
       <c r="E77" t="n">
-        <v>5465</v>
+        <v>5435</v>
       </c>
       <c r="F77" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G77" t="n">
-        <v>-3030.406599999999</v>
+        <v>-3504.0792</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3275,11 +3163,7 @@
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3290,22 +3174,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>5470</v>
+        <v>5435</v>
       </c>
       <c r="C78" t="n">
-        <v>5470</v>
+        <v>5435</v>
       </c>
       <c r="D78" t="n">
-        <v>5470</v>
+        <v>5435</v>
       </c>
       <c r="E78" t="n">
-        <v>5470</v>
+        <v>5435</v>
       </c>
       <c r="F78" t="n">
-        <v>163.8688</v>
+        <v>96</v>
       </c>
       <c r="G78" t="n">
-        <v>-2866.537799999999</v>
+        <v>-3504.0792</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3315,11 +3199,7 @@
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3330,22 +3210,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>5465</v>
+        <v>5420</v>
       </c>
       <c r="C79" t="n">
-        <v>5465</v>
+        <v>5420</v>
       </c>
       <c r="D79" t="n">
-        <v>5465</v>
+        <v>5420</v>
       </c>
       <c r="E79" t="n">
-        <v>5465</v>
+        <v>5420</v>
       </c>
       <c r="F79" t="n">
-        <v>5</v>
+        <v>13.2</v>
       </c>
       <c r="G79" t="n">
-        <v>-2871.537799999999</v>
+        <v>-3517.279199999999</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3355,11 +3235,7 @@
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3370,22 +3246,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>5475</v>
+        <v>5420</v>
       </c>
       <c r="C80" t="n">
-        <v>5475</v>
+        <v>5415</v>
       </c>
       <c r="D80" t="n">
-        <v>5475</v>
+        <v>5420</v>
       </c>
       <c r="E80" t="n">
-        <v>5475</v>
+        <v>5410</v>
       </c>
       <c r="F80" t="n">
-        <v>1</v>
+        <v>117.8906</v>
       </c>
       <c r="G80" t="n">
-        <v>-2870.537799999999</v>
+        <v>-3635.1698</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3395,11 +3271,7 @@
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3410,22 +3282,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>5460</v>
+        <v>5400</v>
       </c>
       <c r="C81" t="n">
-        <v>5460</v>
+        <v>5400</v>
       </c>
       <c r="D81" t="n">
-        <v>5460</v>
+        <v>5400</v>
       </c>
       <c r="E81" t="n">
-        <v>5460</v>
+        <v>5400</v>
       </c>
       <c r="F81" t="n">
-        <v>1</v>
+        <v>40.3531</v>
       </c>
       <c r="G81" t="n">
-        <v>-2871.537799999999</v>
+        <v>-3675.522899999999</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3435,11 +3307,7 @@
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3450,22 +3318,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>5450</v>
+        <v>5400</v>
       </c>
       <c r="C82" t="n">
-        <v>5450</v>
+        <v>5395</v>
       </c>
       <c r="D82" t="n">
-        <v>5450</v>
+        <v>5400</v>
       </c>
       <c r="E82" t="n">
-        <v>5450</v>
+        <v>5395</v>
       </c>
       <c r="F82" t="n">
-        <v>7.0486</v>
+        <v>76.48180000000001</v>
       </c>
       <c r="G82" t="n">
-        <v>-2878.586399999999</v>
+        <v>-3752.0047</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3475,11 +3343,7 @@
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3490,22 +3354,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>5470</v>
+        <v>5395</v>
       </c>
       <c r="C83" t="n">
-        <v>5470</v>
+        <v>5395</v>
       </c>
       <c r="D83" t="n">
-        <v>5470</v>
+        <v>5395</v>
       </c>
       <c r="E83" t="n">
-        <v>5470</v>
+        <v>5390</v>
       </c>
       <c r="F83" t="n">
-        <v>2</v>
+        <v>112.8936</v>
       </c>
       <c r="G83" t="n">
-        <v>-2876.586399999999</v>
+        <v>-3752.0047</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3515,11 +3379,7 @@
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3530,36 +3390,36 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>5470</v>
+        <v>5395</v>
       </c>
       <c r="C84" t="n">
-        <v>5470</v>
+        <v>5395</v>
       </c>
       <c r="D84" t="n">
-        <v>5470</v>
+        <v>5395</v>
       </c>
       <c r="E84" t="n">
-        <v>5470</v>
+        <v>5395</v>
       </c>
       <c r="F84" t="n">
-        <v>5.1973</v>
+        <v>38.1717</v>
       </c>
       <c r="G84" t="n">
-        <v>-2876.586399999999</v>
+        <v>-3752.0047</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J84" t="n">
+        <v>5395</v>
+      </c>
+      <c r="K84" t="n">
+        <v>5395</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3570,34 +3430,38 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>5435</v>
+        <v>5415</v>
       </c>
       <c r="C85" t="n">
-        <v>5435</v>
+        <v>5430</v>
       </c>
       <c r="D85" t="n">
-        <v>5435</v>
+        <v>5430</v>
       </c>
       <c r="E85" t="n">
-        <v>5435</v>
+        <v>5415</v>
       </c>
       <c r="F85" t="n">
-        <v>6.1602</v>
+        <v>5.4559</v>
       </c>
       <c r="G85" t="n">
-        <v>-2882.746599999999</v>
+        <v>-3746.5488</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>5395</v>
+      </c>
+      <c r="K85" t="n">
+        <v>5395</v>
+      </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M85" t="n">
@@ -3610,34 +3474,38 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>5470</v>
+        <v>5430</v>
       </c>
       <c r="C86" t="n">
-        <v>5470</v>
+        <v>5435</v>
       </c>
       <c r="D86" t="n">
-        <v>5470</v>
+        <v>5435</v>
       </c>
       <c r="E86" t="n">
-        <v>5470</v>
+        <v>5430</v>
       </c>
       <c r="F86" t="n">
-        <v>1</v>
+        <v>47.1801</v>
       </c>
       <c r="G86" t="n">
-        <v>-2881.746599999999</v>
+        <v>-3699.3687</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>5430</v>
+      </c>
+      <c r="K86" t="n">
+        <v>5395</v>
+      </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M86" t="n">
@@ -3650,34 +3518,38 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>5480</v>
+        <v>5410</v>
       </c>
       <c r="C87" t="n">
-        <v>5480</v>
+        <v>5415</v>
       </c>
       <c r="D87" t="n">
-        <v>5480</v>
+        <v>5415</v>
       </c>
       <c r="E87" t="n">
-        <v>5480</v>
+        <v>5410</v>
       </c>
       <c r="F87" t="n">
-        <v>1</v>
+        <v>40.0977</v>
       </c>
       <c r="G87" t="n">
-        <v>-2880.746599999999</v>
+        <v>-3739.466399999999</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>5435</v>
+      </c>
+      <c r="K87" t="n">
+        <v>5395</v>
+      </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="M87" t="n">
@@ -3690,31 +3562,35 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>5475</v>
+        <v>5415</v>
       </c>
       <c r="C88" t="n">
-        <v>5475</v>
+        <v>5415</v>
       </c>
       <c r="D88" t="n">
-        <v>5475</v>
+        <v>5415</v>
       </c>
       <c r="E88" t="n">
-        <v>5475</v>
+        <v>5415</v>
       </c>
       <c r="F88" t="n">
-        <v>3</v>
+        <v>19.8466</v>
       </c>
       <c r="G88" t="n">
-        <v>-2883.746599999999</v>
+        <v>-3739.466399999999</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>5415</v>
+      </c>
+      <c r="K88" t="n">
+        <v>5395</v>
+      </c>
       <c r="L88" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3730,31 +3606,35 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>5475</v>
+        <v>5420</v>
       </c>
       <c r="C89" t="n">
-        <v>5475</v>
+        <v>5420</v>
       </c>
       <c r="D89" t="n">
-        <v>5475</v>
+        <v>5420</v>
       </c>
       <c r="E89" t="n">
-        <v>5475</v>
+        <v>5420</v>
       </c>
       <c r="F89" t="n">
-        <v>61.1281</v>
+        <v>5.9517</v>
       </c>
       <c r="G89" t="n">
-        <v>-2883.746599999999</v>
+        <v>-3733.514699999999</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>5415</v>
+      </c>
+      <c r="K89" t="n">
+        <v>5395</v>
+      </c>
       <c r="L89" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3770,31 +3650,35 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>5480</v>
+        <v>5410</v>
       </c>
       <c r="C90" t="n">
-        <v>5480</v>
+        <v>5420</v>
       </c>
       <c r="D90" t="n">
-        <v>5480</v>
+        <v>5420</v>
       </c>
       <c r="E90" t="n">
-        <v>5480</v>
+        <v>5410</v>
       </c>
       <c r="F90" t="n">
-        <v>11.9495</v>
+        <v>83.5111</v>
       </c>
       <c r="G90" t="n">
-        <v>-2871.797099999999</v>
+        <v>-3733.514699999999</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>5420</v>
+      </c>
+      <c r="K90" t="n">
+        <v>5395</v>
+      </c>
       <c r="L90" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3810,31 +3694,35 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>5465</v>
+        <v>5420</v>
       </c>
       <c r="C91" t="n">
-        <v>5465</v>
+        <v>5420</v>
       </c>
       <c r="D91" t="n">
-        <v>5465</v>
+        <v>5420</v>
       </c>
       <c r="E91" t="n">
-        <v>5465</v>
+        <v>5420</v>
       </c>
       <c r="F91" t="n">
-        <v>5.667</v>
+        <v>43.4886</v>
       </c>
       <c r="G91" t="n">
-        <v>-2877.464099999999</v>
+        <v>-3733.514699999999</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>5420</v>
+      </c>
+      <c r="K91" t="n">
+        <v>5395</v>
+      </c>
       <c r="L91" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3850,31 +3738,35 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>5475</v>
+        <v>5415</v>
       </c>
       <c r="C92" t="n">
-        <v>5475</v>
+        <v>5415</v>
       </c>
       <c r="D92" t="n">
-        <v>5475</v>
+        <v>5415</v>
       </c>
       <c r="E92" t="n">
-        <v>5475</v>
+        <v>5415</v>
       </c>
       <c r="F92" t="n">
-        <v>0.092</v>
+        <v>17.5</v>
       </c>
       <c r="G92" t="n">
-        <v>-2877.372099999999</v>
+        <v>-3751.014699999999</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>5420</v>
+      </c>
+      <c r="K92" t="n">
+        <v>5395</v>
+      </c>
       <c r="L92" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3890,31 +3782,35 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>5460</v>
+        <v>5415</v>
       </c>
       <c r="C93" t="n">
-        <v>5455</v>
+        <v>5415</v>
       </c>
       <c r="D93" t="n">
-        <v>5460</v>
+        <v>5415</v>
       </c>
       <c r="E93" t="n">
-        <v>5455</v>
+        <v>5415</v>
       </c>
       <c r="F93" t="n">
-        <v>150.3187</v>
+        <v>15.356</v>
       </c>
       <c r="G93" t="n">
-        <v>-3027.690799999998</v>
+        <v>-3751.014699999999</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>5415</v>
+      </c>
+      <c r="K93" t="n">
+        <v>5395</v>
+      </c>
       <c r="L93" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3930,31 +3826,35 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>5455</v>
+        <v>5415</v>
       </c>
       <c r="C94" t="n">
-        <v>5475</v>
+        <v>5415</v>
       </c>
       <c r="D94" t="n">
-        <v>5475</v>
+        <v>5415</v>
       </c>
       <c r="E94" t="n">
-        <v>5450</v>
+        <v>5415</v>
       </c>
       <c r="F94" t="n">
-        <v>66.0626</v>
+        <v>28.1268</v>
       </c>
       <c r="G94" t="n">
-        <v>-2961.628199999998</v>
+        <v>-3751.014699999999</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>5415</v>
+      </c>
+      <c r="K94" t="n">
+        <v>5395</v>
+      </c>
       <c r="L94" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3970,31 +3870,35 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>5475</v>
+        <v>5410</v>
       </c>
       <c r="C95" t="n">
-        <v>5475</v>
+        <v>5395</v>
       </c>
       <c r="D95" t="n">
-        <v>5475</v>
+        <v>5410</v>
       </c>
       <c r="E95" t="n">
-        <v>5475</v>
+        <v>5395</v>
       </c>
       <c r="F95" t="n">
-        <v>31.6</v>
+        <v>207.1817</v>
       </c>
       <c r="G95" t="n">
-        <v>-2961.628199999998</v>
+        <v>-3958.196399999999</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>5415</v>
+      </c>
+      <c r="K95" t="n">
+        <v>5395</v>
+      </c>
       <c r="L95" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4010,31 +3914,35 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>5475</v>
+        <v>5400</v>
       </c>
       <c r="C96" t="n">
-        <v>5475</v>
+        <v>5420</v>
       </c>
       <c r="D96" t="n">
-        <v>5475</v>
+        <v>5420</v>
       </c>
       <c r="E96" t="n">
-        <v>5475</v>
+        <v>5400</v>
       </c>
       <c r="F96" t="n">
-        <v>8.0665</v>
+        <v>496.305</v>
       </c>
       <c r="G96" t="n">
-        <v>-2961.628199999998</v>
+        <v>-3461.8914</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>5395</v>
+      </c>
+      <c r="K96" t="n">
+        <v>5395</v>
+      </c>
       <c r="L96" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4050,31 +3958,35 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>5465</v>
+        <v>5425</v>
       </c>
       <c r="C97" t="n">
-        <v>5465</v>
+        <v>5425</v>
       </c>
       <c r="D97" t="n">
-        <v>5480</v>
+        <v>5425</v>
       </c>
       <c r="E97" t="n">
-        <v>5465</v>
+        <v>5425</v>
       </c>
       <c r="F97" t="n">
-        <v>704.1126</v>
+        <v>5.9</v>
       </c>
       <c r="G97" t="n">
-        <v>-3665.740799999998</v>
+        <v>-3455.991399999999</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>5420</v>
+      </c>
+      <c r="K97" t="n">
+        <v>5395</v>
+      </c>
       <c r="L97" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4090,31 +4002,35 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>5480</v>
+        <v>5425</v>
       </c>
       <c r="C98" t="n">
-        <v>5485</v>
+        <v>5430</v>
       </c>
       <c r="D98" t="n">
-        <v>5485</v>
+        <v>5430</v>
       </c>
       <c r="E98" t="n">
-        <v>5480</v>
+        <v>5425</v>
       </c>
       <c r="F98" t="n">
-        <v>355.5409</v>
+        <v>19.5202</v>
       </c>
       <c r="G98" t="n">
-        <v>-3310.199899999998</v>
+        <v>-3436.471199999999</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>5425</v>
+      </c>
+      <c r="K98" t="n">
+        <v>5395</v>
+      </c>
       <c r="L98" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4130,31 +4046,35 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>5485</v>
+        <v>5435</v>
       </c>
       <c r="C99" t="n">
-        <v>5490</v>
+        <v>5435</v>
       </c>
       <c r="D99" t="n">
-        <v>5490</v>
+        <v>5435</v>
       </c>
       <c r="E99" t="n">
-        <v>5485</v>
+        <v>5435</v>
       </c>
       <c r="F99" t="n">
-        <v>200.3194</v>
+        <v>81.93689999999999</v>
       </c>
       <c r="G99" t="n">
-        <v>-3109.880499999998</v>
+        <v>-3354.534299999999</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>5430</v>
+      </c>
+      <c r="K99" t="n">
+        <v>5395</v>
+      </c>
       <c r="L99" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4170,31 +4090,35 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>5490</v>
+        <v>5435</v>
       </c>
       <c r="C100" t="n">
-        <v>5490</v>
+        <v>5435</v>
       </c>
       <c r="D100" t="n">
-        <v>5490</v>
+        <v>5435</v>
       </c>
       <c r="E100" t="n">
-        <v>5490</v>
+        <v>5435</v>
       </c>
       <c r="F100" t="n">
-        <v>71.4104</v>
+        <v>105.3345</v>
       </c>
       <c r="G100" t="n">
-        <v>-3109.880499999998</v>
+        <v>-3354.534299999999</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>5435</v>
+      </c>
+      <c r="K100" t="n">
+        <v>5395</v>
+      </c>
       <c r="L100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4210,31 +4134,35 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>5490</v>
+        <v>5405</v>
       </c>
       <c r="C101" t="n">
-        <v>5490</v>
+        <v>5405</v>
       </c>
       <c r="D101" t="n">
-        <v>5490</v>
+        <v>5405</v>
       </c>
       <c r="E101" t="n">
-        <v>5490</v>
+        <v>5405</v>
       </c>
       <c r="F101" t="n">
-        <v>6.6482</v>
+        <v>105.1989</v>
       </c>
       <c r="G101" t="n">
-        <v>-3109.880499999998</v>
+        <v>-3459.733199999999</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>5435</v>
+      </c>
+      <c r="K101" t="n">
+        <v>5395</v>
+      </c>
       <c r="L101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4250,31 +4178,35 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>5490</v>
+        <v>5435</v>
       </c>
       <c r="C102" t="n">
-        <v>5465</v>
+        <v>5435</v>
       </c>
       <c r="D102" t="n">
-        <v>5490</v>
+        <v>5435</v>
       </c>
       <c r="E102" t="n">
-        <v>5465</v>
+        <v>5435</v>
       </c>
       <c r="F102" t="n">
-        <v>9.396100000000001</v>
+        <v>24</v>
       </c>
       <c r="G102" t="n">
-        <v>-3119.276599999998</v>
+        <v>-3435.733199999999</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>5405</v>
+      </c>
+      <c r="K102" t="n">
+        <v>5395</v>
+      </c>
       <c r="L102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4290,31 +4222,35 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>5485</v>
+        <v>5435</v>
       </c>
       <c r="C103" t="n">
-        <v>5490</v>
+        <v>5435</v>
       </c>
       <c r="D103" t="n">
-        <v>5490</v>
+        <v>5435</v>
       </c>
       <c r="E103" t="n">
-        <v>5485</v>
+        <v>5435</v>
       </c>
       <c r="F103" t="n">
-        <v>41.5896</v>
+        <v>22.6766</v>
       </c>
       <c r="G103" t="n">
-        <v>-3077.686999999999</v>
+        <v>-3435.733199999999</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>5435</v>
+      </c>
+      <c r="K103" t="n">
+        <v>5395</v>
+      </c>
       <c r="L103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4330,31 +4266,35 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>5490</v>
+        <v>5440</v>
       </c>
       <c r="C104" t="n">
-        <v>5490</v>
+        <v>5440</v>
       </c>
       <c r="D104" t="n">
-        <v>5490</v>
+        <v>5440</v>
       </c>
       <c r="E104" t="n">
-        <v>5490</v>
+        <v>5440</v>
       </c>
       <c r="F104" t="n">
-        <v>25.4186</v>
+        <v>4.3266</v>
       </c>
       <c r="G104" t="n">
-        <v>-3077.686999999999</v>
+        <v>-3431.406599999999</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>5435</v>
+      </c>
+      <c r="K104" t="n">
+        <v>5395</v>
+      </c>
       <c r="L104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4370,22 +4310,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>5490</v>
+        <v>5450</v>
       </c>
       <c r="C105" t="n">
-        <v>5490</v>
+        <v>5450</v>
       </c>
       <c r="D105" t="n">
-        <v>5490</v>
+        <v>5450</v>
       </c>
       <c r="E105" t="n">
-        <v>5490</v>
+        <v>5450</v>
       </c>
       <c r="F105" t="n">
-        <v>137.0512</v>
+        <v>400</v>
       </c>
       <c r="G105" t="n">
-        <v>-3077.686999999999</v>
+        <v>-3031.406599999999</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4394,7 +4334,9 @@
         <v>0</v>
       </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>5395</v>
+      </c>
       <c r="L105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4422,10 +4364,10 @@
         <v>5465</v>
       </c>
       <c r="F106" t="n">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="G106" t="n">
-        <v>-3101.686999999999</v>
+        <v>-3030.406599999999</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4434,7 +4376,9 @@
         <v>0</v>
       </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>5395</v>
+      </c>
       <c r="L106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4462,10 +4406,10 @@
         <v>5470</v>
       </c>
       <c r="F107" t="n">
-        <v>18.6567</v>
+        <v>163.8688</v>
       </c>
       <c r="G107" t="n">
-        <v>-3083.030299999999</v>
+        <v>-2866.537799999999</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4474,7 +4418,9 @@
         <v>0</v>
       </c>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>5395</v>
+      </c>
       <c r="L107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4490,22 +4436,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>5490</v>
+        <v>5465</v>
       </c>
       <c r="C108" t="n">
-        <v>5490</v>
+        <v>5465</v>
       </c>
       <c r="D108" t="n">
-        <v>5490</v>
+        <v>5465</v>
       </c>
       <c r="E108" t="n">
-        <v>5490</v>
+        <v>5465</v>
       </c>
       <c r="F108" t="n">
-        <v>5.9936</v>
+        <v>5</v>
       </c>
       <c r="G108" t="n">
-        <v>-3077.036699999999</v>
+        <v>-2871.537799999999</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4514,7 +4460,9 @@
         <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>5395</v>
+      </c>
       <c r="L108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4530,22 +4478,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>5490</v>
+        <v>5475</v>
       </c>
       <c r="C109" t="n">
-        <v>5490</v>
+        <v>5475</v>
       </c>
       <c r="D109" t="n">
-        <v>5490</v>
+        <v>5475</v>
       </c>
       <c r="E109" t="n">
-        <v>5490</v>
+        <v>5475</v>
       </c>
       <c r="F109" t="n">
-        <v>6.2538</v>
+        <v>1</v>
       </c>
       <c r="G109" t="n">
-        <v>-3077.036699999999</v>
+        <v>-2870.537799999999</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4554,7 +4502,9 @@
         <v>0</v>
       </c>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>5395</v>
+      </c>
       <c r="L109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4570,22 +4520,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>5490</v>
+        <v>5460</v>
       </c>
       <c r="C110" t="n">
-        <v>5490</v>
+        <v>5460</v>
       </c>
       <c r="D110" t="n">
-        <v>5490</v>
+        <v>5460</v>
       </c>
       <c r="E110" t="n">
-        <v>5490</v>
+        <v>5460</v>
       </c>
       <c r="F110" t="n">
-        <v>0.0001</v>
+        <v>1</v>
       </c>
       <c r="G110" t="n">
-        <v>-3077.036699999999</v>
+        <v>-2871.537799999999</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4594,7 +4544,9 @@
         <v>0</v>
       </c>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>5395</v>
+      </c>
       <c r="L110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4610,22 +4562,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>5490</v>
+        <v>5450</v>
       </c>
       <c r="C111" t="n">
-        <v>5490</v>
+        <v>5450</v>
       </c>
       <c r="D111" t="n">
-        <v>5490</v>
+        <v>5450</v>
       </c>
       <c r="E111" t="n">
-        <v>5490</v>
+        <v>5450</v>
       </c>
       <c r="F111" t="n">
-        <v>5.8</v>
+        <v>7.0486</v>
       </c>
       <c r="G111" t="n">
-        <v>-3077.036699999999</v>
+        <v>-2878.586399999999</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4634,7 +4586,9 @@
         <v>0</v>
       </c>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>5395</v>
+      </c>
       <c r="L111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4650,22 +4604,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>5465</v>
+        <v>5470</v>
       </c>
       <c r="C112" t="n">
-        <v>5475</v>
+        <v>5470</v>
       </c>
       <c r="D112" t="n">
-        <v>5475</v>
+        <v>5470</v>
       </c>
       <c r="E112" t="n">
-        <v>5455</v>
+        <v>5470</v>
       </c>
       <c r="F112" t="n">
-        <v>114.9969</v>
+        <v>2</v>
       </c>
       <c r="G112" t="n">
-        <v>-3192.033599999999</v>
+        <v>-2876.586399999999</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4674,7 +4628,9 @@
         <v>0</v>
       </c>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>5395</v>
+      </c>
       <c r="L112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4690,22 +4646,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>5475</v>
+        <v>5470</v>
       </c>
       <c r="C113" t="n">
-        <v>5475</v>
+        <v>5470</v>
       </c>
       <c r="D113" t="n">
-        <v>5475</v>
+        <v>5470</v>
       </c>
       <c r="E113" t="n">
-        <v>5475</v>
+        <v>5470</v>
       </c>
       <c r="F113" t="n">
-        <v>78.0847</v>
+        <v>5.1973</v>
       </c>
       <c r="G113" t="n">
-        <v>-3192.033599999999</v>
+        <v>-2876.586399999999</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4714,7 +4670,9 @@
         <v>0</v>
       </c>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>5395</v>
+      </c>
       <c r="L113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4730,22 +4688,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>5475</v>
+        <v>5435</v>
       </c>
       <c r="C114" t="n">
-        <v>5475</v>
+        <v>5435</v>
       </c>
       <c r="D114" t="n">
-        <v>5475</v>
+        <v>5435</v>
       </c>
       <c r="E114" t="n">
-        <v>5475</v>
+        <v>5435</v>
       </c>
       <c r="F114" t="n">
-        <v>1.6128</v>
+        <v>6.1602</v>
       </c>
       <c r="G114" t="n">
-        <v>-3192.033599999999</v>
+        <v>-2882.746599999999</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4754,7 +4712,9 @@
         <v>0</v>
       </c>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>5395</v>
+      </c>
       <c r="L114" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4770,22 +4730,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>5460</v>
+        <v>5470</v>
       </c>
       <c r="C115" t="n">
-        <v>5460</v>
+        <v>5470</v>
       </c>
       <c r="D115" t="n">
-        <v>5460</v>
+        <v>5470</v>
       </c>
       <c r="E115" t="n">
-        <v>5460</v>
+        <v>5470</v>
       </c>
       <c r="F115" t="n">
-        <v>1.4213</v>
+        <v>1</v>
       </c>
       <c r="G115" t="n">
-        <v>-3193.454899999999</v>
+        <v>-2881.746599999999</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4794,7 +4754,9 @@
         <v>0</v>
       </c>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>5395</v>
+      </c>
       <c r="L115" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4810,22 +4772,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>5465</v>
+        <v>5480</v>
       </c>
       <c r="C116" t="n">
-        <v>5455</v>
+        <v>5480</v>
       </c>
       <c r="D116" t="n">
-        <v>5465</v>
+        <v>5480</v>
       </c>
       <c r="E116" t="n">
-        <v>5455</v>
+        <v>5480</v>
       </c>
       <c r="F116" t="n">
-        <v>155.2078</v>
+        <v>1</v>
       </c>
       <c r="G116" t="n">
-        <v>-3348.662699999999</v>
+        <v>-2880.746599999999</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4834,7 +4796,9 @@
         <v>0</v>
       </c>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>5395</v>
+      </c>
       <c r="L116" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4850,22 +4814,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>5455</v>
+        <v>5475</v>
       </c>
       <c r="C117" t="n">
-        <v>5500</v>
+        <v>5475</v>
       </c>
       <c r="D117" t="n">
-        <v>5500</v>
+        <v>5475</v>
       </c>
       <c r="E117" t="n">
-        <v>5455</v>
+        <v>5475</v>
       </c>
       <c r="F117" t="n">
-        <v>581.3149</v>
+        <v>3</v>
       </c>
       <c r="G117" t="n">
-        <v>-2767.347799999999</v>
+        <v>-2883.746599999999</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4874,7 +4838,9 @@
         <v>0</v>
       </c>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>5395</v>
+      </c>
       <c r="L117" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4890,22 +4856,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>5455</v>
+        <v>5475</v>
       </c>
       <c r="C118" t="n">
-        <v>5455</v>
+        <v>5475</v>
       </c>
       <c r="D118" t="n">
-        <v>5455</v>
+        <v>5475</v>
       </c>
       <c r="E118" t="n">
-        <v>5455</v>
+        <v>5475</v>
       </c>
       <c r="F118" t="n">
-        <v>11.2</v>
+        <v>61.1281</v>
       </c>
       <c r="G118" t="n">
-        <v>-2778.547799999999</v>
+        <v>-2883.746599999999</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4914,7 +4880,9 @@
         <v>0</v>
       </c>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>5395</v>
+      </c>
       <c r="L118" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4930,22 +4898,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>5450</v>
+        <v>5480</v>
       </c>
       <c r="C119" t="n">
-        <v>5450</v>
+        <v>5480</v>
       </c>
       <c r="D119" t="n">
-        <v>5450</v>
+        <v>5480</v>
       </c>
       <c r="E119" t="n">
-        <v>5450</v>
+        <v>5480</v>
       </c>
       <c r="F119" t="n">
-        <v>176.5552</v>
+        <v>11.9495</v>
       </c>
       <c r="G119" t="n">
-        <v>-2955.102999999999</v>
+        <v>-2871.797099999999</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4954,7 +4922,9 @@
         <v>0</v>
       </c>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>5395</v>
+      </c>
       <c r="L119" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4970,22 +4940,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>5450</v>
+        <v>5465</v>
       </c>
       <c r="C120" t="n">
-        <v>5450</v>
+        <v>5465</v>
       </c>
       <c r="D120" t="n">
-        <v>5450</v>
+        <v>5465</v>
       </c>
       <c r="E120" t="n">
-        <v>5450</v>
+        <v>5465</v>
       </c>
       <c r="F120" t="n">
-        <v>37.7808</v>
+        <v>5.667</v>
       </c>
       <c r="G120" t="n">
-        <v>-2955.102999999999</v>
+        <v>-2877.464099999999</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4994,7 +4964,9 @@
         <v>0</v>
       </c>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>5395</v>
+      </c>
       <c r="L120" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5010,22 +4982,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>5450</v>
+        <v>5475</v>
       </c>
       <c r="C121" t="n">
-        <v>5450</v>
+        <v>5475</v>
       </c>
       <c r="D121" t="n">
-        <v>5450</v>
+        <v>5475</v>
       </c>
       <c r="E121" t="n">
-        <v>5450</v>
+        <v>5475</v>
       </c>
       <c r="F121" t="n">
-        <v>6.757</v>
+        <v>0.092</v>
       </c>
       <c r="G121" t="n">
-        <v>-2955.102999999999</v>
+        <v>-2877.372099999999</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -5034,7 +5006,9 @@
         <v>0</v>
       </c>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>5395</v>
+      </c>
       <c r="L121" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5050,22 +5024,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>5450</v>
+        <v>5460</v>
       </c>
       <c r="C122" t="n">
-        <v>5450</v>
+        <v>5455</v>
       </c>
       <c r="D122" t="n">
-        <v>5450</v>
+        <v>5460</v>
       </c>
       <c r="E122" t="n">
-        <v>5450</v>
+        <v>5455</v>
       </c>
       <c r="F122" t="n">
-        <v>100.41</v>
+        <v>150.3187</v>
       </c>
       <c r="G122" t="n">
-        <v>-2955.102999999999</v>
+        <v>-3027.690799999998</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -5074,7 +5048,9 @@
         <v>0</v>
       </c>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>5395</v>
+      </c>
       <c r="L122" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5090,22 +5066,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
+        <v>5455</v>
+      </c>
+      <c r="C123" t="n">
+        <v>5475</v>
+      </c>
+      <c r="D123" t="n">
+        <v>5475</v>
+      </c>
+      <c r="E123" t="n">
         <v>5450</v>
       </c>
-      <c r="C123" t="n">
-        <v>5435</v>
-      </c>
-      <c r="D123" t="n">
-        <v>5450</v>
-      </c>
-      <c r="E123" t="n">
-        <v>5435</v>
-      </c>
       <c r="F123" t="n">
-        <v>6.6</v>
+        <v>66.0626</v>
       </c>
       <c r="G123" t="n">
-        <v>-2961.702999999999</v>
+        <v>-2961.628199999998</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -5114,7 +5090,9 @@
         <v>0</v>
       </c>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>5395</v>
+      </c>
       <c r="L123" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5130,22 +5108,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>5435</v>
+        <v>5475</v>
       </c>
       <c r="C124" t="n">
-        <v>5450</v>
+        <v>5475</v>
       </c>
       <c r="D124" t="n">
-        <v>5450</v>
+        <v>5475</v>
       </c>
       <c r="E124" t="n">
-        <v>5425</v>
+        <v>5475</v>
       </c>
       <c r="F124" t="n">
-        <v>822.3593</v>
+        <v>31.6</v>
       </c>
       <c r="G124" t="n">
-        <v>-2139.343699999999</v>
+        <v>-2961.628199999998</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -5154,7 +5132,9 @@
         <v>0</v>
       </c>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>5395</v>
+      </c>
       <c r="L124" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5170,33 +5150,33 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>5450</v>
+        <v>5475</v>
       </c>
       <c r="C125" t="n">
-        <v>5450</v>
+        <v>5475</v>
       </c>
       <c r="D125" t="n">
-        <v>5450</v>
+        <v>5475</v>
       </c>
       <c r="E125" t="n">
-        <v>5450</v>
+        <v>5475</v>
       </c>
       <c r="F125" t="n">
-        <v>27</v>
+        <v>8.0665</v>
       </c>
       <c r="G125" t="n">
-        <v>-2139.343699999999</v>
+        <v>-2961.628199999998</v>
       </c>
       <c r="H125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="n">
-        <v>5450</v>
-      </c>
-      <c r="K125" t="inlineStr"/>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>5395</v>
+      </c>
       <c r="L125" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5212,22 +5192,22 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>5450</v>
+        <v>5465</v>
       </c>
       <c r="C126" t="n">
-        <v>5450</v>
+        <v>5465</v>
       </c>
       <c r="D126" t="n">
-        <v>5450</v>
+        <v>5480</v>
       </c>
       <c r="E126" t="n">
-        <v>5450</v>
+        <v>5465</v>
       </c>
       <c r="F126" t="n">
-        <v>0.0268</v>
+        <v>704.1126</v>
       </c>
       <c r="G126" t="n">
-        <v>-2139.343699999999</v>
+        <v>-3665.740799999998</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -5236,7 +5216,9 @@
         <v>0</v>
       </c>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>5395</v>
+      </c>
       <c r="L126" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5252,7 +5234,7 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>5485</v>
+        <v>5480</v>
       </c>
       <c r="C127" t="n">
         <v>5485</v>
@@ -5261,13 +5243,13 @@
         <v>5485</v>
       </c>
       <c r="E127" t="n">
-        <v>5485</v>
+        <v>5480</v>
       </c>
       <c r="F127" t="n">
-        <v>1</v>
+        <v>355.5409</v>
       </c>
       <c r="G127" t="n">
-        <v>-2138.343699999999</v>
+        <v>-3310.199899999998</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -5276,7 +5258,9 @@
         <v>0</v>
       </c>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>5395</v>
+      </c>
       <c r="L127" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5292,22 +5276,22 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>5445</v>
+        <v>5485</v>
       </c>
       <c r="C128" t="n">
-        <v>5445</v>
+        <v>5490</v>
       </c>
       <c r="D128" t="n">
-        <v>5445</v>
+        <v>5490</v>
       </c>
       <c r="E128" t="n">
-        <v>5445</v>
+        <v>5485</v>
       </c>
       <c r="F128" t="n">
-        <v>123.4039</v>
+        <v>200.3194</v>
       </c>
       <c r="G128" t="n">
-        <v>-2261.747599999999</v>
+        <v>-3109.880499999998</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -5316,7 +5300,9 @@
         <v>0</v>
       </c>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>5395</v>
+      </c>
       <c r="L128" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5332,40 +5318,1260 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
+        <v>5490</v>
+      </c>
+      <c r="C129" t="n">
+        <v>5490</v>
+      </c>
+      <c r="D129" t="n">
+        <v>5490</v>
+      </c>
+      <c r="E129" t="n">
+        <v>5490</v>
+      </c>
+      <c r="F129" t="n">
+        <v>71.4104</v>
+      </c>
+      <c r="G129" t="n">
+        <v>-3109.880499999998</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>5395</v>
+      </c>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M129" t="n">
+        <v>1</v>
+      </c>
+      <c r="N129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>5490</v>
+      </c>
+      <c r="C130" t="n">
+        <v>5490</v>
+      </c>
+      <c r="D130" t="n">
+        <v>5490</v>
+      </c>
+      <c r="E130" t="n">
+        <v>5490</v>
+      </c>
+      <c r="F130" t="n">
+        <v>6.6482</v>
+      </c>
+      <c r="G130" t="n">
+        <v>-3109.880499999998</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>5395</v>
+      </c>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M130" t="n">
+        <v>1</v>
+      </c>
+      <c r="N130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>5490</v>
+      </c>
+      <c r="C131" t="n">
+        <v>5465</v>
+      </c>
+      <c r="D131" t="n">
+        <v>5490</v>
+      </c>
+      <c r="E131" t="n">
+        <v>5465</v>
+      </c>
+      <c r="F131" t="n">
+        <v>9.396100000000001</v>
+      </c>
+      <c r="G131" t="n">
+        <v>-3119.276599999998</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>5395</v>
+      </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M131" t="n">
+        <v>1</v>
+      </c>
+      <c r="N131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>5485</v>
+      </c>
+      <c r="C132" t="n">
+        <v>5490</v>
+      </c>
+      <c r="D132" t="n">
+        <v>5490</v>
+      </c>
+      <c r="E132" t="n">
+        <v>5485</v>
+      </c>
+      <c r="F132" t="n">
+        <v>41.5896</v>
+      </c>
+      <c r="G132" t="n">
+        <v>-3077.686999999999</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>5395</v>
+      </c>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M132" t="n">
+        <v>1</v>
+      </c>
+      <c r="N132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>5490</v>
+      </c>
+      <c r="C133" t="n">
+        <v>5490</v>
+      </c>
+      <c r="D133" t="n">
+        <v>5490</v>
+      </c>
+      <c r="E133" t="n">
+        <v>5490</v>
+      </c>
+      <c r="F133" t="n">
+        <v>25.4186</v>
+      </c>
+      <c r="G133" t="n">
+        <v>-3077.686999999999</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>5395</v>
+      </c>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M133" t="n">
+        <v>1</v>
+      </c>
+      <c r="N133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>5490</v>
+      </c>
+      <c r="C134" t="n">
+        <v>5490</v>
+      </c>
+      <c r="D134" t="n">
+        <v>5490</v>
+      </c>
+      <c r="E134" t="n">
+        <v>5490</v>
+      </c>
+      <c r="F134" t="n">
+        <v>137.0512</v>
+      </c>
+      <c r="G134" t="n">
+        <v>-3077.686999999999</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>5395</v>
+      </c>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M134" t="n">
+        <v>1</v>
+      </c>
+      <c r="N134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>5465</v>
+      </c>
+      <c r="C135" t="n">
+        <v>5465</v>
+      </c>
+      <c r="D135" t="n">
+        <v>5465</v>
+      </c>
+      <c r="E135" t="n">
+        <v>5465</v>
+      </c>
+      <c r="F135" t="n">
+        <v>24</v>
+      </c>
+      <c r="G135" t="n">
+        <v>-3101.686999999999</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>5395</v>
+      </c>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+      <c r="N135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>5470</v>
+      </c>
+      <c r="C136" t="n">
+        <v>5470</v>
+      </c>
+      <c r="D136" t="n">
+        <v>5470</v>
+      </c>
+      <c r="E136" t="n">
+        <v>5470</v>
+      </c>
+      <c r="F136" t="n">
+        <v>18.6567</v>
+      </c>
+      <c r="G136" t="n">
+        <v>-3083.030299999999</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>5395</v>
+      </c>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M136" t="n">
+        <v>1</v>
+      </c>
+      <c r="N136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>5490</v>
+      </c>
+      <c r="C137" t="n">
+        <v>5490</v>
+      </c>
+      <c r="D137" t="n">
+        <v>5490</v>
+      </c>
+      <c r="E137" t="n">
+        <v>5490</v>
+      </c>
+      <c r="F137" t="n">
+        <v>5.9936</v>
+      </c>
+      <c r="G137" t="n">
+        <v>-3077.036699999999</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>5395</v>
+      </c>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M137" t="n">
+        <v>1</v>
+      </c>
+      <c r="N137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>5490</v>
+      </c>
+      <c r="C138" t="n">
+        <v>5490</v>
+      </c>
+      <c r="D138" t="n">
+        <v>5490</v>
+      </c>
+      <c r="E138" t="n">
+        <v>5490</v>
+      </c>
+      <c r="F138" t="n">
+        <v>6.2538</v>
+      </c>
+      <c r="G138" t="n">
+        <v>-3077.036699999999</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>5395</v>
+      </c>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+      <c r="N138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>5490</v>
+      </c>
+      <c r="C139" t="n">
+        <v>5490</v>
+      </c>
+      <c r="D139" t="n">
+        <v>5490</v>
+      </c>
+      <c r="E139" t="n">
+        <v>5490</v>
+      </c>
+      <c r="F139" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="G139" t="n">
+        <v>-3077.036699999999</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>5395</v>
+      </c>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M139" t="n">
+        <v>1</v>
+      </c>
+      <c r="N139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>5490</v>
+      </c>
+      <c r="C140" t="n">
+        <v>5490</v>
+      </c>
+      <c r="D140" t="n">
+        <v>5490</v>
+      </c>
+      <c r="E140" t="n">
+        <v>5490</v>
+      </c>
+      <c r="F140" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="G140" t="n">
+        <v>-3077.036699999999</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>5395</v>
+      </c>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M140" t="n">
+        <v>1</v>
+      </c>
+      <c r="N140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>5465</v>
+      </c>
+      <c r="C141" t="n">
+        <v>5475</v>
+      </c>
+      <c r="D141" t="n">
+        <v>5475</v>
+      </c>
+      <c r="E141" t="n">
+        <v>5455</v>
+      </c>
+      <c r="F141" t="n">
+        <v>114.9969</v>
+      </c>
+      <c r="G141" t="n">
+        <v>-3192.033599999999</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>5395</v>
+      </c>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M141" t="n">
+        <v>1</v>
+      </c>
+      <c r="N141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>5475</v>
+      </c>
+      <c r="C142" t="n">
+        <v>5475</v>
+      </c>
+      <c r="D142" t="n">
+        <v>5475</v>
+      </c>
+      <c r="E142" t="n">
+        <v>5475</v>
+      </c>
+      <c r="F142" t="n">
+        <v>78.0847</v>
+      </c>
+      <c r="G142" t="n">
+        <v>-3192.033599999999</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>5395</v>
+      </c>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+      <c r="N142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>5475</v>
+      </c>
+      <c r="C143" t="n">
+        <v>5475</v>
+      </c>
+      <c r="D143" t="n">
+        <v>5475</v>
+      </c>
+      <c r="E143" t="n">
+        <v>5475</v>
+      </c>
+      <c r="F143" t="n">
+        <v>1.6128</v>
+      </c>
+      <c r="G143" t="n">
+        <v>-3192.033599999999</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>5395</v>
+      </c>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+      <c r="N143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>5460</v>
+      </c>
+      <c r="C144" t="n">
+        <v>5460</v>
+      </c>
+      <c r="D144" t="n">
+        <v>5460</v>
+      </c>
+      <c r="E144" t="n">
+        <v>5460</v>
+      </c>
+      <c r="F144" t="n">
+        <v>1.4213</v>
+      </c>
+      <c r="G144" t="n">
+        <v>-3193.454899999999</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>5395</v>
+      </c>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+      <c r="N144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>5465</v>
+      </c>
+      <c r="C145" t="n">
+        <v>5455</v>
+      </c>
+      <c r="D145" t="n">
+        <v>5465</v>
+      </c>
+      <c r="E145" t="n">
+        <v>5455</v>
+      </c>
+      <c r="F145" t="n">
+        <v>155.2078</v>
+      </c>
+      <c r="G145" t="n">
+        <v>-3348.662699999999</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>5395</v>
+      </c>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M145" t="n">
+        <v>1</v>
+      </c>
+      <c r="N145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>5455</v>
+      </c>
+      <c r="C146" t="n">
+        <v>5500</v>
+      </c>
+      <c r="D146" t="n">
+        <v>5500</v>
+      </c>
+      <c r="E146" t="n">
+        <v>5455</v>
+      </c>
+      <c r="F146" t="n">
+        <v>581.3149</v>
+      </c>
+      <c r="G146" t="n">
+        <v>-2767.347799999999</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>5395</v>
+      </c>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M146" t="n">
+        <v>1</v>
+      </c>
+      <c r="N146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>5455</v>
+      </c>
+      <c r="C147" t="n">
+        <v>5455</v>
+      </c>
+      <c r="D147" t="n">
+        <v>5455</v>
+      </c>
+      <c r="E147" t="n">
+        <v>5455</v>
+      </c>
+      <c r="F147" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="G147" t="n">
+        <v>-2778.547799999999</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>5395</v>
+      </c>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M147" t="n">
+        <v>1</v>
+      </c>
+      <c r="N147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>5450</v>
+      </c>
+      <c r="C148" t="n">
+        <v>5450</v>
+      </c>
+      <c r="D148" t="n">
+        <v>5450</v>
+      </c>
+      <c r="E148" t="n">
+        <v>5450</v>
+      </c>
+      <c r="F148" t="n">
+        <v>176.5552</v>
+      </c>
+      <c r="G148" t="n">
+        <v>-2955.102999999999</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>5395</v>
+      </c>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M148" t="n">
+        <v>1</v>
+      </c>
+      <c r="N148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>5450</v>
+      </c>
+      <c r="C149" t="n">
+        <v>5450</v>
+      </c>
+      <c r="D149" t="n">
+        <v>5450</v>
+      </c>
+      <c r="E149" t="n">
+        <v>5450</v>
+      </c>
+      <c r="F149" t="n">
+        <v>37.7808</v>
+      </c>
+      <c r="G149" t="n">
+        <v>-2955.102999999999</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>5395</v>
+      </c>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M149" t="n">
+        <v>1</v>
+      </c>
+      <c r="N149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>5450</v>
+      </c>
+      <c r="C150" t="n">
+        <v>5450</v>
+      </c>
+      <c r="D150" t="n">
+        <v>5450</v>
+      </c>
+      <c r="E150" t="n">
+        <v>5450</v>
+      </c>
+      <c r="F150" t="n">
+        <v>6.757</v>
+      </c>
+      <c r="G150" t="n">
+        <v>-2955.102999999999</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>5395</v>
+      </c>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M150" t="n">
+        <v>1</v>
+      </c>
+      <c r="N150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>5450</v>
+      </c>
+      <c r="C151" t="n">
+        <v>5450</v>
+      </c>
+      <c r="D151" t="n">
+        <v>5450</v>
+      </c>
+      <c r="E151" t="n">
+        <v>5450</v>
+      </c>
+      <c r="F151" t="n">
+        <v>100.41</v>
+      </c>
+      <c r="G151" t="n">
+        <v>-2955.102999999999</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>5395</v>
+      </c>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M151" t="n">
+        <v>1</v>
+      </c>
+      <c r="N151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>5450</v>
+      </c>
+      <c r="C152" t="n">
+        <v>5435</v>
+      </c>
+      <c r="D152" t="n">
+        <v>5450</v>
+      </c>
+      <c r="E152" t="n">
+        <v>5435</v>
+      </c>
+      <c r="F152" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="G152" t="n">
+        <v>-2961.702999999999</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>5395</v>
+      </c>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M152" t="n">
+        <v>1</v>
+      </c>
+      <c r="N152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>5435</v>
+      </c>
+      <c r="C153" t="n">
+        <v>5450</v>
+      </c>
+      <c r="D153" t="n">
+        <v>5450</v>
+      </c>
+      <c r="E153" t="n">
+        <v>5425</v>
+      </c>
+      <c r="F153" t="n">
+        <v>822.3593</v>
+      </c>
+      <c r="G153" t="n">
+        <v>-2139.343699999999</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>5395</v>
+      </c>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M153" t="n">
+        <v>1</v>
+      </c>
+      <c r="N153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>5450</v>
+      </c>
+      <c r="C154" t="n">
+        <v>5450</v>
+      </c>
+      <c r="D154" t="n">
+        <v>5450</v>
+      </c>
+      <c r="E154" t="n">
+        <v>5450</v>
+      </c>
+      <c r="F154" t="n">
+        <v>27</v>
+      </c>
+      <c r="G154" t="n">
+        <v>-2139.343699999999</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>5395</v>
+      </c>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M154" t="n">
+        <v>1</v>
+      </c>
+      <c r="N154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>5450</v>
+      </c>
+      <c r="C155" t="n">
+        <v>5450</v>
+      </c>
+      <c r="D155" t="n">
+        <v>5450</v>
+      </c>
+      <c r="E155" t="n">
+        <v>5450</v>
+      </c>
+      <c r="F155" t="n">
+        <v>0.0268</v>
+      </c>
+      <c r="G155" t="n">
+        <v>-2139.343699999999</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>5395</v>
+      </c>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M155" t="n">
+        <v>1</v>
+      </c>
+      <c r="N155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>5485</v>
+      </c>
+      <c r="C156" t="n">
+        <v>5485</v>
+      </c>
+      <c r="D156" t="n">
+        <v>5485</v>
+      </c>
+      <c r="E156" t="n">
+        <v>5485</v>
+      </c>
+      <c r="F156" t="n">
+        <v>1</v>
+      </c>
+      <c r="G156" t="n">
+        <v>-2138.343699999999</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>5395</v>
+      </c>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M156" t="n">
+        <v>1</v>
+      </c>
+      <c r="N156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
         <v>5445</v>
       </c>
-      <c r="C129" t="n">
+      <c r="C157" t="n">
+        <v>5445</v>
+      </c>
+      <c r="D157" t="n">
+        <v>5445</v>
+      </c>
+      <c r="E157" t="n">
+        <v>5445</v>
+      </c>
+      <c r="F157" t="n">
+        <v>123.4039</v>
+      </c>
+      <c r="G157" t="n">
+        <v>-2261.747599999999</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>5395</v>
+      </c>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M157" t="n">
+        <v>1</v>
+      </c>
+      <c r="N157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>5445</v>
+      </c>
+      <c r="C158" t="n">
         <v>5495</v>
       </c>
-      <c r="D129" t="n">
+      <c r="D158" t="n">
         <v>5495</v>
       </c>
-      <c r="E129" t="n">
+      <c r="E158" t="n">
         <v>5445</v>
       </c>
-      <c r="F129" t="n">
+      <c r="F158" t="n">
         <v>91.01562302000001</v>
       </c>
-      <c r="G129" t="n">
+      <c r="G158" t="n">
         <v>-2170.731976979999</v>
       </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>5395</v>
+      </c>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M158" t="n">
+        <v>1</v>
+      </c>
+      <c r="N158" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2020-01-23 BackTest MCO.xlsx
+++ b/BackTest/2020-01-23 BackTest MCO.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N158"/>
+  <dimension ref="A1:M158"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -456,18 +451,15 @@
         <v>-394.1403000000003</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -492,18 +484,15 @@
         <v>-394.1403000000003</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -528,18 +517,15 @@
         <v>-394.1403000000003</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -564,18 +550,15 @@
         <v>-394.1403000000003</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -600,18 +583,15 @@
         <v>-394.1403000000003</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -636,18 +616,15 @@
         <v>-394.1403000000003</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -674,16 +651,13 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="n">
-        <v>1</v>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -708,18 +682,15 @@
         <v>-394.1403000000003</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -746,16 +717,13 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>1</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -782,16 +750,13 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>1</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -816,18 +781,15 @@
         <v>-489.6578000000002</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -852,18 +814,15 @@
         <v>-584.9876000000003</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -888,18 +847,15 @@
         <v>-584.9876000000003</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -924,18 +880,15 @@
         <v>-1500.1077</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -960,18 +913,15 @@
         <v>-1468.7216</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -998,16 +948,13 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>1</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1032,18 +979,15 @@
         <v>-1482.9809</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1068,18 +1012,15 @@
         <v>-2775.1879</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1104,18 +1045,15 @@
         <v>-2767.9097</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1140,18 +1078,15 @@
         <v>-2767.9097</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1176,18 +1111,15 @@
         <v>-2784.7098</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1214,16 +1146,13 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1248,18 +1177,15 @@
         <v>-2784.6098</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1286,16 +1212,13 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1322,16 +1245,13 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1358,16 +1278,13 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1394,16 +1311,13 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1430,16 +1344,13 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1466,16 +1377,13 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1502,16 +1410,13 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1538,16 +1443,13 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1574,16 +1476,13 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1610,16 +1509,13 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1646,16 +1542,13 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1682,16 +1575,13 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1718,16 +1608,13 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1754,16 +1641,13 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1790,16 +1674,13 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1826,16 +1707,13 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1862,16 +1740,13 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1898,16 +1773,13 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1934,16 +1806,13 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1970,16 +1839,13 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2006,16 +1872,13 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2042,16 +1905,13 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2078,16 +1938,13 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2114,16 +1971,13 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2150,16 +2004,13 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2186,16 +2037,13 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2222,16 +2070,13 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2258,16 +2103,13 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2294,16 +2136,13 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2330,16 +2169,13 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2366,16 +2202,13 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2402,16 +2235,13 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2438,16 +2268,13 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2474,16 +2301,13 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2510,16 +2334,13 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2546,16 +2367,13 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2582,16 +2400,13 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2618,16 +2433,13 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2654,16 +2466,13 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2690,16 +2499,13 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2726,16 +2532,13 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2762,16 +2565,13 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2798,16 +2598,13 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2834,16 +2631,13 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2870,16 +2664,13 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2906,16 +2697,13 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2942,16 +2730,13 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2978,16 +2763,13 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3014,16 +2796,13 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3050,16 +2829,13 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3086,16 +2862,13 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3122,16 +2895,13 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3158,16 +2928,13 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3194,16 +2961,13 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3230,16 +2994,13 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3266,16 +3027,13 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3302,16 +3060,13 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3338,16 +3093,13 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3374,16 +3126,13 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3408,22 +3157,15 @@
         <v>-3752.0047</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
-      </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
-      <c r="J84" t="n">
-        <v>5395</v>
-      </c>
-      <c r="K84" t="n">
-        <v>5395</v>
-      </c>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3448,26 +3190,19 @@
         <v>-3746.5488</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I85" t="n">
-        <v>0</v>
+        <v>5395</v>
       </c>
       <c r="J85" t="n">
         <v>5395</v>
       </c>
-      <c r="K85" t="n">
-        <v>5395</v>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3492,26 +3227,23 @@
         <v>-3699.3687</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I86" t="n">
-        <v>0</v>
+        <v>5430</v>
       </c>
       <c r="J86" t="n">
-        <v>5430</v>
-      </c>
-      <c r="K86" t="n">
         <v>5395</v>
       </c>
-      <c r="L86" t="inlineStr">
+      <c r="K86" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3536,26 +3268,23 @@
         <v>-3739.466399999999</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I87" t="n">
-        <v>0</v>
+        <v>5435</v>
       </c>
       <c r="J87" t="n">
-        <v>5435</v>
-      </c>
-      <c r="K87" t="n">
         <v>5395</v>
       </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3580,26 +3309,19 @@
         <v>-3739.466399999999</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I88" t="n">
-        <v>0</v>
+        <v>5415</v>
       </c>
       <c r="J88" t="n">
         <v>5415</v>
       </c>
-      <c r="K88" t="n">
-        <v>5395</v>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3624,26 +3346,23 @@
         <v>-3733.514699999999</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I89" t="n">
-        <v>0</v>
+        <v>5415</v>
       </c>
       <c r="J89" t="n">
         <v>5415</v>
       </c>
-      <c r="K89" t="n">
-        <v>5395</v>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3668,26 +3387,23 @@
         <v>-3733.514699999999</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I90" t="n">
-        <v>0</v>
+        <v>5420</v>
       </c>
       <c r="J90" t="n">
-        <v>5420</v>
-      </c>
-      <c r="K90" t="n">
-        <v>5395</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+        <v>5415</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3712,26 +3428,23 @@
         <v>-3733.514699999999</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I91" t="n">
-        <v>0</v>
+        <v>5420</v>
       </c>
       <c r="J91" t="n">
-        <v>5420</v>
-      </c>
-      <c r="K91" t="n">
-        <v>5395</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+        <v>5415</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3756,26 +3469,23 @@
         <v>-3751.014699999999</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I92" t="n">
-        <v>0</v>
+        <v>5420</v>
       </c>
       <c r="J92" t="n">
-        <v>5420</v>
-      </c>
-      <c r="K92" t="n">
-        <v>5395</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+        <v>5415</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3800,26 +3510,23 @@
         <v>-3751.014699999999</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I93" t="n">
-        <v>0</v>
+        <v>5415</v>
       </c>
       <c r="J93" t="n">
         <v>5415</v>
       </c>
-      <c r="K93" t="n">
-        <v>5395</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3844,26 +3551,23 @@
         <v>-3751.014699999999</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I94" t="n">
-        <v>0</v>
+        <v>5415</v>
       </c>
       <c r="J94" t="n">
         <v>5415</v>
       </c>
-      <c r="K94" t="n">
-        <v>5395</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3888,26 +3592,23 @@
         <v>-3958.196399999999</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I95" t="n">
-        <v>0</v>
+        <v>5415</v>
       </c>
       <c r="J95" t="n">
         <v>5415</v>
       </c>
-      <c r="K95" t="n">
-        <v>5395</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3932,26 +3633,23 @@
         <v>-3461.8914</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I96" t="n">
-        <v>0</v>
+        <v>5395</v>
       </c>
       <c r="J96" t="n">
-        <v>5395</v>
-      </c>
-      <c r="K96" t="n">
-        <v>5395</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+        <v>5415</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3976,26 +3674,21 @@
         <v>-3455.991399999999</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="n">
-        <v>5420</v>
-      </c>
-      <c r="K97" t="n">
-        <v>5395</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+        <v>5415</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4020,26 +3713,23 @@
         <v>-3436.471199999999</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I98" t="n">
-        <v>0</v>
+        <v>5425</v>
       </c>
       <c r="J98" t="n">
-        <v>5425</v>
-      </c>
-      <c r="K98" t="n">
-        <v>5395</v>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+        <v>5415</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4064,26 +3754,21 @@
         <v>-3354.534299999999</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="n">
-        <v>5430</v>
-      </c>
-      <c r="K99" t="n">
-        <v>5395</v>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+        <v>5415</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4108,26 +3793,21 @@
         <v>-3354.534299999999</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="n">
-        <v>5435</v>
-      </c>
-      <c r="K100" t="n">
-        <v>5395</v>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+        <v>5415</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4152,26 +3832,21 @@
         <v>-3459.733199999999</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="n">
-        <v>5435</v>
-      </c>
-      <c r="K101" t="n">
-        <v>5395</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+        <v>5415</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4196,26 +3871,21 @@
         <v>-3435.733199999999</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
-      </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="n">
-        <v>5405</v>
-      </c>
-      <c r="K102" t="n">
-        <v>5395</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+        <v>5415</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4240,26 +3910,21 @@
         <v>-3435.733199999999</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
-      </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="n">
-        <v>5435</v>
-      </c>
-      <c r="K103" t="n">
-        <v>5395</v>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+        <v>5415</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4284,26 +3949,21 @@
         <v>-3431.406599999999</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
-      </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="n">
-        <v>5435</v>
-      </c>
-      <c r="K104" t="n">
-        <v>5395</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+        <v>5415</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4330,22 +3990,19 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="n">
-        <v>5395</v>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>5415</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4372,22 +4029,19 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="n">
-        <v>5395</v>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>5415</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4414,22 +4068,19 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="n">
-        <v>5395</v>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>5415</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4456,22 +4107,19 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="n">
-        <v>5395</v>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="I108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>5415</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4498,22 +4146,19 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="n">
-        <v>5395</v>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="I109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>5415</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4540,22 +4185,19 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="n">
-        <v>5395</v>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="I110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>5415</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4582,22 +4224,19 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="n">
-        <v>5395</v>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="I111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>5415</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4624,22 +4263,19 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="n">
-        <v>5395</v>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="I112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>5415</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4666,22 +4302,19 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="n">
-        <v>5395</v>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="I113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>5415</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4708,22 +4341,19 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="n">
-        <v>5395</v>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="I114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>5415</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4750,22 +4380,19 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="n">
-        <v>5395</v>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="I115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>5415</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4792,22 +4419,19 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="n">
-        <v>5395</v>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="I116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>5415</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4834,22 +4458,19 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="n">
-        <v>5395</v>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>5415</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4876,22 +4497,19 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="n">
-        <v>5395</v>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>5415</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4918,22 +4536,19 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="n">
-        <v>5395</v>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="I119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>5415</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4960,22 +4575,19 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="n">
-        <v>5395</v>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="I120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>5415</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -5002,22 +4614,19 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="n">
-        <v>5395</v>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="I121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>5415</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -5044,22 +4653,19 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="n">
-        <v>5395</v>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="I122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>5415</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5086,22 +4692,19 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="n">
-        <v>5395</v>
-      </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="I123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>5415</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5128,22 +4731,19 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="n">
-        <v>5395</v>
-      </c>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="I124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>5415</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5170,22 +4770,19 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="n">
-        <v>5395</v>
-      </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="I125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>5415</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5212,22 +4809,19 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="n">
-        <v>5395</v>
-      </c>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="I126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>5415</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5254,22 +4848,19 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="n">
-        <v>5395</v>
-      </c>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="I127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>5415</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5296,22 +4887,19 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="n">
-        <v>5395</v>
-      </c>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="I128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>5415</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5338,22 +4926,19 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="n">
-        <v>5395</v>
-      </c>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="I129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>5415</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5380,22 +4965,19 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="n">
-        <v>5395</v>
-      </c>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="I130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>5415</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5422,22 +5004,19 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="n">
-        <v>5395</v>
-      </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="I131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>5415</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5464,22 +5043,19 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="n">
-        <v>5395</v>
-      </c>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="I132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>5415</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5506,22 +5082,19 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="n">
-        <v>5395</v>
-      </c>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="I133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>5415</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5548,22 +5121,19 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="n">
-        <v>5395</v>
-      </c>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="I134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>5415</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5590,22 +5160,19 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="n">
-        <v>5395</v>
-      </c>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="I135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>5415</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5632,22 +5199,19 @@
       <c r="H136" t="n">
         <v>0</v>
       </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="n">
-        <v>5395</v>
-      </c>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="I136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>5415</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5674,22 +5238,19 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="n">
-        <v>5395</v>
-      </c>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="I137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>5415</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5716,22 +5277,19 @@
       <c r="H138" t="n">
         <v>0</v>
       </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="n">
-        <v>5395</v>
-      </c>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="I138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>5415</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5758,22 +5316,19 @@
       <c r="H139" t="n">
         <v>0</v>
       </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="n">
-        <v>5395</v>
-      </c>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="I139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>5415</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5800,22 +5355,19 @@
       <c r="H140" t="n">
         <v>0</v>
       </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="n">
-        <v>5395</v>
-      </c>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="I140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>5415</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5842,22 +5394,19 @@
       <c r="H141" t="n">
         <v>0</v>
       </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="n">
-        <v>5395</v>
-      </c>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="I141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>5415</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5884,22 +5433,19 @@
       <c r="H142" t="n">
         <v>0</v>
       </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="n">
-        <v>5395</v>
-      </c>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="I142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>5415</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5926,22 +5472,19 @@
       <c r="H143" t="n">
         <v>0</v>
       </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="n">
-        <v>5395</v>
-      </c>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="I143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>5415</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5968,22 +5511,19 @@
       <c r="H144" t="n">
         <v>0</v>
       </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="n">
-        <v>5395</v>
-      </c>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="I144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>5415</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -6010,22 +5550,19 @@
       <c r="H145" t="n">
         <v>0</v>
       </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="n">
-        <v>5395</v>
-      </c>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="I145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>5415</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -6052,22 +5589,19 @@
       <c r="H146" t="n">
         <v>0</v>
       </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="n">
-        <v>5395</v>
-      </c>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="I146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>5415</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -6094,22 +5628,19 @@
       <c r="H147" t="n">
         <v>0</v>
       </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="n">
-        <v>5395</v>
-      </c>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="I147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>5415</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -6136,22 +5667,19 @@
       <c r="H148" t="n">
         <v>0</v>
       </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="n">
-        <v>5395</v>
-      </c>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="I148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>5415</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -6178,22 +5706,19 @@
       <c r="H149" t="n">
         <v>0</v>
       </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="n">
-        <v>5395</v>
-      </c>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="I149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>5415</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -6220,22 +5745,19 @@
       <c r="H150" t="n">
         <v>0</v>
       </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="n">
-        <v>5395</v>
-      </c>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="I150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>5415</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -6262,22 +5784,19 @@
       <c r="H151" t="n">
         <v>0</v>
       </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="n">
-        <v>5395</v>
-      </c>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="I151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>5415</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -6304,22 +5823,19 @@
       <c r="H152" t="n">
         <v>0</v>
       </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="n">
-        <v>5395</v>
-      </c>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="I152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>5415</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6346,22 +5862,19 @@
       <c r="H153" t="n">
         <v>0</v>
       </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="n">
-        <v>5395</v>
-      </c>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="I153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>5415</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6388,22 +5901,19 @@
       <c r="H154" t="n">
         <v>0</v>
       </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="n">
-        <v>5395</v>
-      </c>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="I154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>5415</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6430,22 +5940,19 @@
       <c r="H155" t="n">
         <v>0</v>
       </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="n">
-        <v>5395</v>
-      </c>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="I155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>5415</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6472,22 +5979,19 @@
       <c r="H156" t="n">
         <v>0</v>
       </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="n">
-        <v>5395</v>
-      </c>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="I156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>5415</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6514,22 +6018,19 @@
       <c r="H157" t="n">
         <v>0</v>
       </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="n">
-        <v>5395</v>
-      </c>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="I157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>5415</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6556,24 +6057,21 @@
       <c r="H158" t="n">
         <v>0</v>
       </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="n">
-        <v>5395</v>
-      </c>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="I158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>5415</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-23 BackTest MCO.xlsx
+++ b/BackTest/2020-01-23 BackTest MCO.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-394.1403000000003</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-394.1403000000003</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-394.1403000000003</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-394.1403000000003</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-394.1403000000003</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-394.1403000000003</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-394.1403000000003</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-394.1403000000003</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-394.1403000000003</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-394.1403000000003</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-489.6578000000002</v>
       </c>
       <c r="H12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-584.9876000000003</v>
       </c>
       <c r="H13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-584.9876000000003</v>
       </c>
       <c r="H14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-1500.1077</v>
       </c>
       <c r="H15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-1468.7216</v>
       </c>
       <c r="H16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-1468.7216</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-1482.9809</v>
       </c>
       <c r="H18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-2775.1879</v>
       </c>
       <c r="H19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-2767.9097</v>
       </c>
       <c r="H20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-2767.9097</v>
       </c>
       <c r="H21" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-2784.7098</v>
       </c>
       <c r="H22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-2784.7098</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-2784.6098</v>
       </c>
       <c r="H24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-2747.8705</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -3124,11 +3124,17 @@
         <v>-3752.0047</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I83" t="n">
+        <v>5395</v>
+      </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3157,11 +3163,17 @@
         <v>-3752.0047</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I84" t="n">
+        <v>5395</v>
+      </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3190,15 +3202,17 @@
         <v>-3746.5488</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I85" t="n">
         <v>5395</v>
       </c>
-      <c r="J85" t="n">
-        <v>5395</v>
-      </c>
-      <c r="K85" t="inlineStr"/>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3227,17 +3241,15 @@
         <v>-3699.3687</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I86" t="n">
         <v>5430</v>
       </c>
-      <c r="J86" t="n">
-        <v>5395</v>
-      </c>
+      <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L86" t="n">
@@ -3268,17 +3280,15 @@
         <v>-3739.466399999999</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I87" t="n">
         <v>5435</v>
       </c>
-      <c r="J87" t="n">
-        <v>5395</v>
-      </c>
+      <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L87" t="n">
@@ -3309,15 +3319,17 @@
         <v>-3739.466399999999</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I88" t="n">
         <v>5415</v>
       </c>
-      <c r="J88" t="n">
-        <v>5415</v>
-      </c>
-      <c r="K88" t="inlineStr"/>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3346,17 +3358,15 @@
         <v>-3733.514699999999</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I89" t="n">
         <v>5415</v>
       </c>
-      <c r="J89" t="n">
-        <v>5415</v>
-      </c>
+      <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L89" t="n">
@@ -3387,17 +3397,15 @@
         <v>-3733.514699999999</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I90" t="n">
         <v>5420</v>
       </c>
-      <c r="J90" t="n">
-        <v>5415</v>
-      </c>
+      <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L90" t="n">
@@ -3428,14 +3436,12 @@
         <v>-3733.514699999999</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I91" t="n">
         <v>5420</v>
       </c>
-      <c r="J91" t="n">
-        <v>5415</v>
-      </c>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3469,14 +3475,10 @@
         <v>-3751.014699999999</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
-      </c>
-      <c r="I92" t="n">
-        <v>5420</v>
-      </c>
-      <c r="J92" t="n">
-        <v>5415</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3510,14 +3512,12 @@
         <v>-3751.014699999999</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I93" t="n">
         <v>5415</v>
       </c>
-      <c r="J93" t="n">
-        <v>5415</v>
-      </c>
+      <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3551,14 +3551,12 @@
         <v>-3751.014699999999</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I94" t="n">
         <v>5415</v>
       </c>
-      <c r="J94" t="n">
-        <v>5415</v>
-      </c>
+      <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3592,14 +3590,10 @@
         <v>-3958.196399999999</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
-      </c>
-      <c r="I95" t="n">
-        <v>5415</v>
-      </c>
-      <c r="J95" t="n">
-        <v>5415</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3633,14 +3627,10 @@
         <v>-3461.8914</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
-      </c>
-      <c r="I96" t="n">
-        <v>5395</v>
-      </c>
-      <c r="J96" t="n">
-        <v>5415</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3677,9 +3667,7 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>5415</v>
-      </c>
+      <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3713,14 +3701,10 @@
         <v>-3436.471199999999</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
-      </c>
-      <c r="I98" t="n">
-        <v>5425</v>
-      </c>
-      <c r="J98" t="n">
-        <v>5415</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3757,9 +3741,7 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>5415</v>
-      </c>
+      <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3796,9 +3778,7 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>5415</v>
-      </c>
+      <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3835,9 +3815,7 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>5415</v>
-      </c>
+      <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3874,9 +3852,7 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>5415</v>
-      </c>
+      <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3913,9 +3889,7 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>5415</v>
-      </c>
+      <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3952,9 +3926,7 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>5415</v>
-      </c>
+      <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3991,9 +3963,7 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>5415</v>
-      </c>
+      <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4030,9 +4000,7 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>5415</v>
-      </c>
+      <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4069,9 +4037,7 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>5415</v>
-      </c>
+      <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4108,9 +4074,7 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>5415</v>
-      </c>
+      <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4147,9 +4111,7 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>5415</v>
-      </c>
+      <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4186,9 +4148,7 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>5415</v>
-      </c>
+      <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4225,9 +4185,7 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>5415</v>
-      </c>
+      <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4264,9 +4222,7 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>5415</v>
-      </c>
+      <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4303,9 +4259,7 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>5415</v>
-      </c>
+      <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4342,9 +4296,7 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>5415</v>
-      </c>
+      <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4381,9 +4333,7 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>5415</v>
-      </c>
+      <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4420,9 +4370,7 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>5415</v>
-      </c>
+      <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4459,9 +4407,7 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>5415</v>
-      </c>
+      <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4498,9 +4444,7 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>5415</v>
-      </c>
+      <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4537,9 +4481,7 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>5415</v>
-      </c>
+      <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4576,9 +4518,7 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>5415</v>
-      </c>
+      <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4615,9 +4555,7 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>5415</v>
-      </c>
+      <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4654,9 +4592,7 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>5415</v>
-      </c>
+      <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4693,9 +4629,7 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>5415</v>
-      </c>
+      <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4732,9 +4666,7 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>5415</v>
-      </c>
+      <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4771,9 +4703,7 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>5415</v>
-      </c>
+      <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4810,9 +4740,7 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>5415</v>
-      </c>
+      <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4849,9 +4777,7 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>5415</v>
-      </c>
+      <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4888,9 +4814,7 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>5415</v>
-      </c>
+      <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4927,9 +4851,7 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>5415</v>
-      </c>
+      <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4966,9 +4888,7 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>5415</v>
-      </c>
+      <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5005,9 +4925,7 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>5415</v>
-      </c>
+      <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5044,9 +4962,7 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>5415</v>
-      </c>
+      <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5083,9 +4999,7 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>5415</v>
-      </c>
+      <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5122,9 +5036,7 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>5415</v>
-      </c>
+      <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5161,9 +5073,7 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>5415</v>
-      </c>
+      <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5200,9 +5110,7 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>5415</v>
-      </c>
+      <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5239,9 +5147,7 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>5415</v>
-      </c>
+      <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5278,9 +5184,7 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>5415</v>
-      </c>
+      <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5317,9 +5221,7 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>5415</v>
-      </c>
+      <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5356,9 +5258,7 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>5415</v>
-      </c>
+      <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5395,9 +5295,7 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>5415</v>
-      </c>
+      <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5434,9 +5332,7 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>5415</v>
-      </c>
+      <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5473,9 +5369,7 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>5415</v>
-      </c>
+      <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5512,9 +5406,7 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>5415</v>
-      </c>
+      <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5551,9 +5443,7 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>5415</v>
-      </c>
+      <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5590,9 +5480,7 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>5415</v>
-      </c>
+      <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5629,9 +5517,7 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>5415</v>
-      </c>
+      <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5668,9 +5554,7 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>5415</v>
-      </c>
+      <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5707,9 +5591,7 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>5415</v>
-      </c>
+      <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5746,9 +5628,7 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>5415</v>
-      </c>
+      <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5785,9 +5665,7 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>5415</v>
-      </c>
+      <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5824,9 +5702,7 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>5415</v>
-      </c>
+      <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5863,9 +5739,7 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>5415</v>
-      </c>
+      <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5902,9 +5776,7 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="n">
-        <v>5415</v>
-      </c>
+      <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5941,9 +5813,7 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="n">
-        <v>5415</v>
-      </c>
+      <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5980,9 +5850,7 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="n">
-        <v>5415</v>
-      </c>
+      <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6019,9 +5887,7 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="n">
-        <v>5415</v>
-      </c>
+      <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6058,9 +5924,7 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="n">
-        <v>5415</v>
-      </c>
+      <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6072,6 +5936,6 @@
       <c r="M158" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-23 BackTest MCO.xlsx
+++ b/BackTest/2020-01-23 BackTest MCO.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-394.1403000000003</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-394.1403000000003</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-394.1403000000003</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-394.1403000000003</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-394.1403000000003</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-394.1403000000003</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-394.1403000000003</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-394.1403000000003</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-394.1403000000003</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-394.1403000000003</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-489.6578000000002</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-584.9876000000003</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-584.9876000000003</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-1500.1077</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-1468.7216</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-1468.7216</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-1482.9809</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-2775.1879</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-2767.9097</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-2784.7098</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-2784.7098</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-2784.6098</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-2747.8705</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -3124,290 +3124,282 @@
         <v>-3752.0047</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
-      </c>
-      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="n">
         <v>5395</v>
       </c>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr">
+      <c r="C84" t="n">
+        <v>5395</v>
+      </c>
+      <c r="D84" t="n">
+        <v>5395</v>
+      </c>
+      <c r="E84" t="n">
+        <v>5395</v>
+      </c>
+      <c r="F84" t="n">
+        <v>38.1717</v>
+      </c>
+      <c r="G84" t="n">
+        <v>-3752.0047</v>
+      </c>
+      <c r="H84" t="n">
+        <v>1</v>
+      </c>
+      <c r="I84" t="n">
+        <v>5395</v>
+      </c>
+      <c r="J84" t="n">
+        <v>5395</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="n">
+        <v>5415</v>
+      </c>
+      <c r="C85" t="n">
+        <v>5430</v>
+      </c>
+      <c r="D85" t="n">
+        <v>5430</v>
+      </c>
+      <c r="E85" t="n">
+        <v>5415</v>
+      </c>
+      <c r="F85" t="n">
+        <v>5.4559</v>
+      </c>
+      <c r="G85" t="n">
+        <v>-3746.5488</v>
+      </c>
+      <c r="H85" t="n">
+        <v>1</v>
+      </c>
+      <c r="I85" t="n">
+        <v>5395</v>
+      </c>
+      <c r="J85" t="n">
+        <v>5395</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="n">
+        <v>5430</v>
+      </c>
+      <c r="C86" t="n">
+        <v>5435</v>
+      </c>
+      <c r="D86" t="n">
+        <v>5435</v>
+      </c>
+      <c r="E86" t="n">
+        <v>5430</v>
+      </c>
+      <c r="F86" t="n">
+        <v>47.1801</v>
+      </c>
+      <c r="G86" t="n">
+        <v>-3699.3687</v>
+      </c>
+      <c r="H86" t="n">
+        <v>1</v>
+      </c>
+      <c r="I86" t="n">
+        <v>5430</v>
+      </c>
+      <c r="J86" t="n">
+        <v>5395</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="n">
+        <v>5410</v>
+      </c>
+      <c r="C87" t="n">
+        <v>5415</v>
+      </c>
+      <c r="D87" t="n">
+        <v>5415</v>
+      </c>
+      <c r="E87" t="n">
+        <v>5410</v>
+      </c>
+      <c r="F87" t="n">
+        <v>40.0977</v>
+      </c>
+      <c r="G87" t="n">
+        <v>-3739.466399999999</v>
+      </c>
+      <c r="H87" t="n">
+        <v>0</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="n">
+        <v>5415</v>
+      </c>
+      <c r="C88" t="n">
+        <v>5415</v>
+      </c>
+      <c r="D88" t="n">
+        <v>5415</v>
+      </c>
+      <c r="E88" t="n">
+        <v>5415</v>
+      </c>
+      <c r="F88" t="n">
+        <v>19.8466</v>
+      </c>
+      <c r="G88" t="n">
+        <v>-3739.466399999999</v>
+      </c>
+      <c r="H88" t="n">
+        <v>1</v>
+      </c>
+      <c r="I88" t="n">
+        <v>5415</v>
+      </c>
+      <c r="J88" t="n">
+        <v>5415</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="n">
+        <v>5420</v>
+      </c>
+      <c r="C89" t="n">
+        <v>5420</v>
+      </c>
+      <c r="D89" t="n">
+        <v>5420</v>
+      </c>
+      <c r="E89" t="n">
+        <v>5420</v>
+      </c>
+      <c r="F89" t="n">
+        <v>5.9517</v>
+      </c>
+      <c r="G89" t="n">
+        <v>-3733.514699999999</v>
+      </c>
+      <c r="H89" t="n">
+        <v>1</v>
+      </c>
+      <c r="I89" t="n">
+        <v>5415</v>
+      </c>
+      <c r="J89" t="n">
+        <v>5415</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="n">
+        <v>5410</v>
+      </c>
+      <c r="C90" t="n">
+        <v>5420</v>
+      </c>
+      <c r="D90" t="n">
+        <v>5420</v>
+      </c>
+      <c r="E90" t="n">
+        <v>5410</v>
+      </c>
+      <c r="F90" t="n">
+        <v>83.5111</v>
+      </c>
+      <c r="G90" t="n">
+        <v>-3733.514699999999</v>
+      </c>
+      <c r="H90" t="n">
+        <v>1</v>
+      </c>
+      <c r="I90" t="n">
+        <v>5420</v>
+      </c>
+      <c r="J90" t="n">
+        <v>5415</v>
+      </c>
+      <c r="K90" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
-    </row>
-    <row r="84">
-      <c r="A84" s="1" t="n">
-        <v>82</v>
-      </c>
-      <c r="B84" t="n">
-        <v>5395</v>
-      </c>
-      <c r="C84" t="n">
-        <v>5395</v>
-      </c>
-      <c r="D84" t="n">
-        <v>5395</v>
-      </c>
-      <c r="E84" t="n">
-        <v>5395</v>
-      </c>
-      <c r="F84" t="n">
-        <v>38.1717</v>
-      </c>
-      <c r="G84" t="n">
-        <v>-3752.0047</v>
-      </c>
-      <c r="H84" t="n">
-        <v>1</v>
-      </c>
-      <c r="I84" t="n">
-        <v>5395</v>
-      </c>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
-    </row>
-    <row r="85">
-      <c r="A85" s="1" t="n">
-        <v>83</v>
-      </c>
-      <c r="B85" t="n">
-        <v>5415</v>
-      </c>
-      <c r="C85" t="n">
-        <v>5430</v>
-      </c>
-      <c r="D85" t="n">
-        <v>5430</v>
-      </c>
-      <c r="E85" t="n">
-        <v>5415</v>
-      </c>
-      <c r="F85" t="n">
-        <v>5.4559</v>
-      </c>
-      <c r="G85" t="n">
-        <v>-3746.5488</v>
-      </c>
-      <c r="H85" t="n">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>5395</v>
-      </c>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
-    </row>
-    <row r="86">
-      <c r="A86" s="1" t="n">
-        <v>84</v>
-      </c>
-      <c r="B86" t="n">
-        <v>5430</v>
-      </c>
-      <c r="C86" t="n">
-        <v>5435</v>
-      </c>
-      <c r="D86" t="n">
-        <v>5435</v>
-      </c>
-      <c r="E86" t="n">
-        <v>5430</v>
-      </c>
-      <c r="F86" t="n">
-        <v>47.1801</v>
-      </c>
-      <c r="G86" t="n">
-        <v>-3699.3687</v>
-      </c>
-      <c r="H86" t="n">
-        <v>1</v>
-      </c>
-      <c r="I86" t="n">
-        <v>5430</v>
-      </c>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
-    </row>
-    <row r="87">
-      <c r="A87" s="1" t="n">
-        <v>85</v>
-      </c>
-      <c r="B87" t="n">
-        <v>5410</v>
-      </c>
-      <c r="C87" t="n">
-        <v>5415</v>
-      </c>
-      <c r="D87" t="n">
-        <v>5415</v>
-      </c>
-      <c r="E87" t="n">
-        <v>5410</v>
-      </c>
-      <c r="F87" t="n">
-        <v>40.0977</v>
-      </c>
-      <c r="G87" t="n">
-        <v>-3739.466399999999</v>
-      </c>
-      <c r="H87" t="n">
-        <v>1</v>
-      </c>
-      <c r="I87" t="n">
-        <v>5435</v>
-      </c>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
-    </row>
-    <row r="88">
-      <c r="A88" s="1" t="n">
-        <v>86</v>
-      </c>
-      <c r="B88" t="n">
-        <v>5415</v>
-      </c>
-      <c r="C88" t="n">
-        <v>5415</v>
-      </c>
-      <c r="D88" t="n">
-        <v>5415</v>
-      </c>
-      <c r="E88" t="n">
-        <v>5415</v>
-      </c>
-      <c r="F88" t="n">
-        <v>19.8466</v>
-      </c>
-      <c r="G88" t="n">
-        <v>-3739.466399999999</v>
-      </c>
-      <c r="H88" t="n">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>5415</v>
-      </c>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
-    </row>
-    <row r="89">
-      <c r="A89" s="1" t="n">
-        <v>87</v>
-      </c>
-      <c r="B89" t="n">
-        <v>5420</v>
-      </c>
-      <c r="C89" t="n">
-        <v>5420</v>
-      </c>
-      <c r="D89" t="n">
-        <v>5420</v>
-      </c>
-      <c r="E89" t="n">
-        <v>5420</v>
-      </c>
-      <c r="F89" t="n">
-        <v>5.9517</v>
-      </c>
-      <c r="G89" t="n">
-        <v>-3733.514699999999</v>
-      </c>
-      <c r="H89" t="n">
-        <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>5415</v>
-      </c>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
-    </row>
-    <row r="90">
-      <c r="A90" s="1" t="n">
-        <v>88</v>
-      </c>
-      <c r="B90" t="n">
-        <v>5410</v>
-      </c>
-      <c r="C90" t="n">
-        <v>5420</v>
-      </c>
-      <c r="D90" t="n">
-        <v>5420</v>
-      </c>
-      <c r="E90" t="n">
-        <v>5410</v>
-      </c>
-      <c r="F90" t="n">
-        <v>83.5111</v>
-      </c>
-      <c r="G90" t="n">
-        <v>-3733.514699999999</v>
-      </c>
-      <c r="H90" t="n">
-        <v>1</v>
-      </c>
-      <c r="I90" t="n">
-        <v>5420</v>
-      </c>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3436,12 +3428,12 @@
         <v>-3733.514699999999</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
-      </c>
-      <c r="I91" t="n">
-        <v>5420</v>
-      </c>
-      <c r="J91" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>5415</v>
+      </c>
       <c r="K91" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3475,10 +3467,14 @@
         <v>-3751.014699999999</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I92" t="n">
+        <v>5420</v>
+      </c>
+      <c r="J92" t="n">
+        <v>5415</v>
+      </c>
       <c r="K92" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3517,7 +3513,9 @@
       <c r="I93" t="n">
         <v>5415</v>
       </c>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>5415</v>
+      </c>
       <c r="K93" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3556,7 +3554,9 @@
       <c r="I94" t="n">
         <v>5415</v>
       </c>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>5415</v>
+      </c>
       <c r="K94" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3590,10 +3590,14 @@
         <v>-3958.196399999999</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I95" t="n">
+        <v>5415</v>
+      </c>
+      <c r="J95" t="n">
+        <v>5415</v>
+      </c>
       <c r="K95" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3627,10 +3631,14 @@
         <v>-3461.8914</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I96" t="n">
+        <v>5395</v>
+      </c>
+      <c r="J96" t="n">
+        <v>5415</v>
+      </c>
       <c r="K96" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3667,7 +3675,9 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>5415</v>
+      </c>
       <c r="K97" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3701,10 +3711,14 @@
         <v>-3436.471199999999</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I98" t="n">
+        <v>5425</v>
+      </c>
+      <c r="J98" t="n">
+        <v>5415</v>
+      </c>
       <c r="K98" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3741,7 +3755,9 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>5415</v>
+      </c>
       <c r="K99" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3778,7 +3794,9 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>5415</v>
+      </c>
       <c r="K100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3815,7 +3833,9 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>5415</v>
+      </c>
       <c r="K101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3849,10 +3869,14 @@
         <v>-3435.733199999999</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I102" t="n">
+        <v>5405</v>
+      </c>
+      <c r="J102" t="n">
+        <v>5415</v>
+      </c>
       <c r="K102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3889,7 +3913,9 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>5415</v>
+      </c>
       <c r="K103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3926,7 +3952,9 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>5415</v>
+      </c>
       <c r="K104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3963,7 +3991,9 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>5415</v>
+      </c>
       <c r="K105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4000,7 +4030,9 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>5415</v>
+      </c>
       <c r="K106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4037,7 +4069,9 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>5415</v>
+      </c>
       <c r="K107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4074,7 +4108,9 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>5415</v>
+      </c>
       <c r="K108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4111,7 +4147,9 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>5415</v>
+      </c>
       <c r="K109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4148,7 +4186,9 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>5415</v>
+      </c>
       <c r="K110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4185,7 +4225,9 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>5415</v>
+      </c>
       <c r="K111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4222,7 +4264,9 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>5415</v>
+      </c>
       <c r="K112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4259,7 +4303,9 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>5415</v>
+      </c>
       <c r="K113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4296,7 +4342,9 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>5415</v>
+      </c>
       <c r="K114" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4333,7 +4381,9 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>5415</v>
+      </c>
       <c r="K115" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4370,7 +4420,9 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>5415</v>
+      </c>
       <c r="K116" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4407,7 +4459,9 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>5415</v>
+      </c>
       <c r="K117" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4444,7 +4498,9 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>5415</v>
+      </c>
       <c r="K118" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4481,7 +4537,9 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>5415</v>
+      </c>
       <c r="K119" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4518,7 +4576,9 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>5415</v>
+      </c>
       <c r="K120" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4555,7 +4615,9 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>5415</v>
+      </c>
       <c r="K121" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4592,7 +4654,9 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>5415</v>
+      </c>
       <c r="K122" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4629,7 +4693,9 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>5415</v>
+      </c>
       <c r="K123" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4666,7 +4732,9 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>5415</v>
+      </c>
       <c r="K124" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4703,7 +4771,9 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>5415</v>
+      </c>
       <c r="K125" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4740,7 +4810,9 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>5415</v>
+      </c>
       <c r="K126" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4774,17 +4846,19 @@
         <v>-3310.199899999998</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>5415</v>
+      </c>
       <c r="K127" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L127" t="n">
-        <v>1</v>
+        <v>1.007927054478301</v>
       </c>
       <c r="M127" t="inlineStr"/>
     </row>
@@ -4811,15 +4885,11 @@
         <v>-3109.880499999998</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4848,15 +4918,11 @@
         <v>-3109.880499999998</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4885,15 +4951,11 @@
         <v>-3109.880499999998</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4922,15 +4984,11 @@
         <v>-3119.276599999998</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -4959,15 +5017,11 @@
         <v>-3077.686999999999</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -4996,15 +5050,11 @@
         <v>-3077.686999999999</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5033,15 +5083,11 @@
         <v>-3077.686999999999</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5070,15 +5116,11 @@
         <v>-3101.686999999999</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5107,15 +5149,11 @@
         <v>-3083.030299999999</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5144,15 +5182,11 @@
         <v>-3077.036699999999</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5181,15 +5215,11 @@
         <v>-3077.036699999999</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5218,15 +5248,11 @@
         <v>-3077.036699999999</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5255,15 +5281,11 @@
         <v>-3077.036699999999</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5292,15 +5314,11 @@
         <v>-3192.033599999999</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5329,15 +5347,11 @@
         <v>-3192.033599999999</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5366,15 +5380,11 @@
         <v>-3192.033599999999</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5403,15 +5413,11 @@
         <v>-3193.454899999999</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5440,15 +5446,11 @@
         <v>-3348.662699999999</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5477,15 +5479,11 @@
         <v>-2767.347799999999</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5514,15 +5512,11 @@
         <v>-2778.547799999999</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5551,15 +5545,11 @@
         <v>-2955.102999999999</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5588,15 +5578,11 @@
         <v>-2955.102999999999</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5625,15 +5611,11 @@
         <v>-2955.102999999999</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5666,11 +5648,7 @@
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5703,11 +5681,7 @@
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5740,11 +5714,7 @@
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5773,15 +5743,11 @@
         <v>-2139.343699999999</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5810,15 +5776,11 @@
         <v>-2139.343699999999</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5851,11 +5813,7 @@
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5888,11 +5846,7 @@
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5925,17 +5879,13 @@
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
       <c r="M158" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-23 BackTest MCO.xlsx
+++ b/BackTest/2020-01-23 BackTest MCO.xlsx
@@ -451,7 +451,7 @@
         <v>-394.1403000000003</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-394.1403000000003</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-394.1403000000003</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-394.1403000000003</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-394.1403000000003</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-394.1403000000003</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-394.1403000000003</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-394.1403000000003</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-394.1403000000003</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-394.1403000000003</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-489.6578000000002</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-584.9876000000003</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-584.9876000000003</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-1500.1077</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-1468.7216</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-1468.7216</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>-2573.2723</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>-2573.1803</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>-2714.2972</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>-2731.5841</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>-3509.0792</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -3276,11 +3276,19 @@
         <v>-3739.466399999999</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I87" t="n">
+        <v>5435</v>
+      </c>
+      <c r="J87" t="n">
+        <v>5395</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3315,9 +3323,13 @@
         <v>5415</v>
       </c>
       <c r="J88" t="n">
-        <v>5415</v>
-      </c>
-      <c r="K88" t="inlineStr"/>
+        <v>5395</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3352,11 +3364,11 @@
         <v>5415</v>
       </c>
       <c r="J89" t="n">
-        <v>5415</v>
+        <v>5395</v>
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L89" t="n">
@@ -3393,11 +3405,11 @@
         <v>5420</v>
       </c>
       <c r="J90" t="n">
-        <v>5415</v>
+        <v>5395</v>
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L90" t="n">
@@ -3428,11 +3440,13 @@
         <v>-3733.514699999999</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I91" t="n">
+        <v>5420</v>
+      </c>
       <c r="J91" t="n">
-        <v>5415</v>
+        <v>5395</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
@@ -3473,7 +3487,7 @@
         <v>5420</v>
       </c>
       <c r="J92" t="n">
-        <v>5415</v>
+        <v>5395</v>
       </c>
       <c r="K92" t="inlineStr">
         <is>
@@ -3514,7 +3528,7 @@
         <v>5415</v>
       </c>
       <c r="J93" t="n">
-        <v>5415</v>
+        <v>5395</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
@@ -3555,7 +3569,7 @@
         <v>5415</v>
       </c>
       <c r="J94" t="n">
-        <v>5415</v>
+        <v>5395</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
@@ -3596,7 +3610,7 @@
         <v>5415</v>
       </c>
       <c r="J95" t="n">
-        <v>5415</v>
+        <v>5395</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
@@ -3637,7 +3651,7 @@
         <v>5395</v>
       </c>
       <c r="J96" t="n">
-        <v>5415</v>
+        <v>5395</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
@@ -3672,11 +3686,13 @@
         <v>-3455.991399999999</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I97" t="n">
+        <v>5420</v>
+      </c>
       <c r="J97" t="n">
-        <v>5415</v>
+        <v>5395</v>
       </c>
       <c r="K97" t="inlineStr">
         <is>
@@ -3711,13 +3727,11 @@
         <v>-3436.471199999999</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
-      </c>
-      <c r="I98" t="n">
-        <v>5425</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="n">
-        <v>5415</v>
+        <v>5395</v>
       </c>
       <c r="K98" t="inlineStr">
         <is>
@@ -3752,11 +3766,13 @@
         <v>-3354.534299999999</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I99" t="n">
+        <v>5430</v>
+      </c>
       <c r="J99" t="n">
-        <v>5415</v>
+        <v>5395</v>
       </c>
       <c r="K99" t="inlineStr">
         <is>
@@ -3791,11 +3807,13 @@
         <v>-3354.534299999999</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>5435</v>
+      </c>
       <c r="J100" t="n">
-        <v>5415</v>
+        <v>5395</v>
       </c>
       <c r="K100" t="inlineStr">
         <is>
@@ -3830,11 +3848,13 @@
         <v>-3459.733199999999</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I101" t="n">
+        <v>5435</v>
+      </c>
       <c r="J101" t="n">
-        <v>5415</v>
+        <v>5395</v>
       </c>
       <c r="K101" t="inlineStr">
         <is>
@@ -3875,7 +3895,7 @@
         <v>5405</v>
       </c>
       <c r="J102" t="n">
-        <v>5415</v>
+        <v>5395</v>
       </c>
       <c r="K102" t="inlineStr">
         <is>
@@ -3910,11 +3930,13 @@
         <v>-3435.733199999999</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I103" t="n">
+        <v>5435</v>
+      </c>
       <c r="J103" t="n">
-        <v>5415</v>
+        <v>5395</v>
       </c>
       <c r="K103" t="inlineStr">
         <is>
@@ -3949,11 +3971,13 @@
         <v>-3431.406599999999</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I104" t="n">
+        <v>5435</v>
+      </c>
       <c r="J104" t="n">
-        <v>5415</v>
+        <v>5395</v>
       </c>
       <c r="K104" t="inlineStr">
         <is>
@@ -3988,11 +4012,13 @@
         <v>-3031.406599999999</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I105" t="n">
+        <v>5440</v>
+      </c>
       <c r="J105" t="n">
-        <v>5415</v>
+        <v>5395</v>
       </c>
       <c r="K105" t="inlineStr">
         <is>
@@ -4027,11 +4053,13 @@
         <v>-3030.406599999999</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I106" t="n">
+        <v>5450</v>
+      </c>
       <c r="J106" t="n">
-        <v>5415</v>
+        <v>5395</v>
       </c>
       <c r="K106" t="inlineStr">
         <is>
@@ -4070,7 +4098,7 @@
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="n">
-        <v>5415</v>
+        <v>5395</v>
       </c>
       <c r="K107" t="inlineStr">
         <is>
@@ -4109,7 +4137,7 @@
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="n">
-        <v>5415</v>
+        <v>5395</v>
       </c>
       <c r="K108" t="inlineStr">
         <is>
@@ -4148,7 +4176,7 @@
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="n">
-        <v>5415</v>
+        <v>5395</v>
       </c>
       <c r="K109" t="inlineStr">
         <is>
@@ -4187,7 +4215,7 @@
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="n">
-        <v>5415</v>
+        <v>5395</v>
       </c>
       <c r="K110" t="inlineStr">
         <is>
@@ -4226,7 +4254,7 @@
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="n">
-        <v>5415</v>
+        <v>5395</v>
       </c>
       <c r="K111" t="inlineStr">
         <is>
@@ -4265,7 +4293,7 @@
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="n">
-        <v>5415</v>
+        <v>5395</v>
       </c>
       <c r="K112" t="inlineStr">
         <is>
@@ -4304,7 +4332,7 @@
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="n">
-        <v>5415</v>
+        <v>5395</v>
       </c>
       <c r="K113" t="inlineStr">
         <is>
@@ -4343,7 +4371,7 @@
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="n">
-        <v>5415</v>
+        <v>5395</v>
       </c>
       <c r="K114" t="inlineStr">
         <is>
@@ -4382,7 +4410,7 @@
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="n">
-        <v>5415</v>
+        <v>5395</v>
       </c>
       <c r="K115" t="inlineStr">
         <is>
@@ -4421,7 +4449,7 @@
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="n">
-        <v>5415</v>
+        <v>5395</v>
       </c>
       <c r="K116" t="inlineStr">
         <is>
@@ -4460,7 +4488,7 @@
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="n">
-        <v>5415</v>
+        <v>5395</v>
       </c>
       <c r="K117" t="inlineStr">
         <is>
@@ -4499,7 +4527,7 @@
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="n">
-        <v>5415</v>
+        <v>5395</v>
       </c>
       <c r="K118" t="inlineStr">
         <is>
@@ -4538,7 +4566,7 @@
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="n">
-        <v>5415</v>
+        <v>5395</v>
       </c>
       <c r="K119" t="inlineStr">
         <is>
@@ -4577,7 +4605,7 @@
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="n">
-        <v>5415</v>
+        <v>5395</v>
       </c>
       <c r="K120" t="inlineStr">
         <is>
@@ -4616,7 +4644,7 @@
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="n">
-        <v>5415</v>
+        <v>5395</v>
       </c>
       <c r="K121" t="inlineStr">
         <is>
@@ -4655,7 +4683,7 @@
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="n">
-        <v>5415</v>
+        <v>5395</v>
       </c>
       <c r="K122" t="inlineStr">
         <is>
@@ -4694,7 +4722,7 @@
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="n">
-        <v>5415</v>
+        <v>5395</v>
       </c>
       <c r="K123" t="inlineStr">
         <is>
@@ -4733,7 +4761,7 @@
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="n">
-        <v>5415</v>
+        <v>5395</v>
       </c>
       <c r="K124" t="inlineStr">
         <is>
@@ -4772,7 +4800,7 @@
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="n">
-        <v>5415</v>
+        <v>5395</v>
       </c>
       <c r="K125" t="inlineStr">
         <is>
@@ -4811,7 +4839,7 @@
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="n">
-        <v>5415</v>
+        <v>5395</v>
       </c>
       <c r="K126" t="inlineStr">
         <is>
@@ -4846,19 +4874,19 @@
         <v>-3310.199899999998</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="n">
-        <v>5415</v>
+        <v>5395</v>
       </c>
       <c r="K127" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L127" t="n">
-        <v>1.007927054478301</v>
+        <v>1</v>
       </c>
       <c r="M127" t="inlineStr"/>
     </row>
@@ -4885,11 +4913,17 @@
         <v>-3109.880499999998</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>5395</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4918,11 +4952,17 @@
         <v>-3109.880499999998</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>5395</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4951,11 +4991,17 @@
         <v>-3109.880499999998</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>5395</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4984,11 +5030,17 @@
         <v>-3119.276599999998</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>5395</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5017,11 +5069,17 @@
         <v>-3077.686999999999</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>5395</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5050,11 +5108,17 @@
         <v>-3077.686999999999</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>5395</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5083,11 +5147,17 @@
         <v>-3077.686999999999</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>5395</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5116,11 +5186,17 @@
         <v>-3101.686999999999</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>5395</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5149,11 +5225,17 @@
         <v>-3083.030299999999</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>5395</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5182,11 +5264,17 @@
         <v>-3077.036699999999</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>5395</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5215,11 +5303,17 @@
         <v>-3077.036699999999</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>5395</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5248,11 +5342,17 @@
         <v>-3077.036699999999</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>5395</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5281,11 +5381,17 @@
         <v>-3077.036699999999</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>5395</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5314,11 +5420,17 @@
         <v>-3192.033599999999</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>5395</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5347,11 +5459,17 @@
         <v>-3192.033599999999</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>5395</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5380,11 +5498,17 @@
         <v>-3192.033599999999</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>5395</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5413,11 +5537,17 @@
         <v>-3193.454899999999</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>5395</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5446,11 +5576,17 @@
         <v>-3348.662699999999</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>5395</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5479,11 +5615,17 @@
         <v>-2767.347799999999</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>5395</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5512,11 +5654,17 @@
         <v>-2778.547799999999</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>5395</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5545,11 +5693,17 @@
         <v>-2955.102999999999</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>5395</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5578,11 +5732,17 @@
         <v>-2955.102999999999</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>5395</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5611,11 +5771,17 @@
         <v>-2955.102999999999</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>5395</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5647,8 +5813,14 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>5395</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5680,8 +5852,14 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>5395</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5713,8 +5891,14 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>5395</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5743,11 +5927,17 @@
         <v>-2139.343699999999</v>
       </c>
       <c r="H154" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>5395</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5776,11 +5966,17 @@
         <v>-2139.343699999999</v>
       </c>
       <c r="H155" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>5395</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5812,8 +6008,14 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>5395</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5845,8 +6047,14 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>5395</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5878,8 +6086,14 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>5395</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2020-01-23 BackTest MCO.xlsx
+++ b/BackTest/2020-01-23 BackTest MCO.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M158"/>
+  <dimension ref="A1:L158"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>trade_state</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>36.5367</v>
       </c>
       <c r="G2" t="n">
-        <v>-394.1403000000003</v>
-      </c>
-      <c r="H2" t="n">
         <v>2</v>
       </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>10.1162</v>
       </c>
       <c r="G3" t="n">
-        <v>-394.1403000000003</v>
-      </c>
-      <c r="H3" t="n">
         <v>2</v>
       </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>36.4603</v>
       </c>
       <c r="G4" t="n">
-        <v>-394.1403000000003</v>
-      </c>
-      <c r="H4" t="n">
         <v>2</v>
       </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>13.1624</v>
       </c>
       <c r="G5" t="n">
-        <v>-394.1403000000003</v>
-      </c>
-      <c r="H5" t="n">
         <v>2</v>
       </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>80.3387</v>
       </c>
       <c r="G6" t="n">
-        <v>-394.1403000000003</v>
-      </c>
-      <c r="H6" t="n">
         <v>2</v>
       </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,15 @@
         <v>220.7418</v>
       </c>
       <c r="G7" t="n">
-        <v>-394.1403000000003</v>
-      </c>
-      <c r="H7" t="n">
         <v>2</v>
       </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +623,15 @@
         <v>185.7713</v>
       </c>
       <c r="G8" t="n">
-        <v>-394.1403000000003</v>
-      </c>
-      <c r="H8" t="n">
         <v>2</v>
       </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +653,15 @@
         <v>54.24954792</v>
       </c>
       <c r="G9" t="n">
-        <v>-394.1403000000003</v>
-      </c>
-      <c r="H9" t="n">
         <v>2</v>
       </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +683,15 @@
         <v>0.5</v>
       </c>
       <c r="G10" t="n">
-        <v>-394.1403000000003</v>
-      </c>
-      <c r="H10" t="n">
         <v>2</v>
       </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +713,15 @@
         <v>198.1946</v>
       </c>
       <c r="G11" t="n">
-        <v>-394.1403000000003</v>
-      </c>
-      <c r="H11" t="n">
         <v>2</v>
       </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +743,15 @@
         <v>95.5175</v>
       </c>
       <c r="G12" t="n">
-        <v>-489.6578000000002</v>
-      </c>
-      <c r="H12" t="n">
         <v>2</v>
       </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +773,15 @@
         <v>95.32980000000001</v>
       </c>
       <c r="G13" t="n">
-        <v>-584.9876000000003</v>
-      </c>
-      <c r="H13" t="n">
         <v>2</v>
       </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +803,15 @@
         <v>67.941</v>
       </c>
       <c r="G14" t="n">
-        <v>-584.9876000000003</v>
-      </c>
-      <c r="H14" t="n">
         <v>2</v>
       </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +833,15 @@
         <v>915.1201</v>
       </c>
       <c r="G15" t="n">
-        <v>-1500.1077</v>
-      </c>
-      <c r="H15" t="n">
         <v>2</v>
       </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +863,15 @@
         <v>31.3861</v>
       </c>
       <c r="G16" t="n">
-        <v>-1468.7216</v>
-      </c>
-      <c r="H16" t="n">
         <v>2</v>
       </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +893,15 @@
         <v>43.7453</v>
       </c>
       <c r="G17" t="n">
-        <v>-1468.7216</v>
-      </c>
-      <c r="H17" t="n">
         <v>2</v>
       </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +923,15 @@
         <v>14.2593</v>
       </c>
       <c r="G18" t="n">
-        <v>-1482.9809</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +953,15 @@
         <v>1292.207</v>
       </c>
       <c r="G19" t="n">
-        <v>-2775.1879</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +983,15 @@
         <v>7.2782</v>
       </c>
       <c r="G20" t="n">
-        <v>-2767.9097</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1013,15 @@
         <v>298.2332</v>
       </c>
       <c r="G21" t="n">
-        <v>-2767.9097</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1043,15 @@
         <v>16.8001</v>
       </c>
       <c r="G22" t="n">
-        <v>-2784.7098</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1073,15 @@
         <v>267.4344</v>
       </c>
       <c r="G23" t="n">
-        <v>-2784.7098</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1103,15 @@
         <v>0.1</v>
       </c>
       <c r="G24" t="n">
-        <v>-2784.6098</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1133,15 @@
         <v>47.9393</v>
       </c>
       <c r="G25" t="n">
-        <v>-2736.6705</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1163,15 @@
         <v>11.2</v>
       </c>
       <c r="G26" t="n">
-        <v>-2747.8705</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1193,15 @@
         <v>12.4</v>
       </c>
       <c r="G27" t="n">
-        <v>-2747.8705</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1223,15 @@
         <v>36</v>
       </c>
       <c r="G28" t="n">
-        <v>-2747.8705</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1253,15 @@
         <v>43.8899</v>
       </c>
       <c r="G29" t="n">
-        <v>-2791.7604</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1283,15 @@
         <v>36</v>
       </c>
       <c r="G30" t="n">
-        <v>-2827.7604</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1313,15 @@
         <v>332.87</v>
       </c>
       <c r="G31" t="n">
-        <v>-2827.7604</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1343,15 @@
         <v>157.4472</v>
       </c>
       <c r="G32" t="n">
-        <v>-2670.3132</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1373,15 @@
         <v>38.2687</v>
       </c>
       <c r="G33" t="n">
-        <v>-2708.5819</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1403,15 @@
         <v>152.0054</v>
       </c>
       <c r="G34" t="n">
-        <v>-2556.5765</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1433,15 @@
         <v>487.6084</v>
       </c>
       <c r="G35" t="n">
-        <v>-2556.5765</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1463,15 @@
         <v>1.3452</v>
       </c>
       <c r="G36" t="n">
-        <v>-2556.5765</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1493,15 @@
         <v>287.9984</v>
       </c>
       <c r="G37" t="n">
-        <v>-2556.5765</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,18 +1523,15 @@
         <v>50.7817</v>
       </c>
       <c r="G38" t="n">
-        <v>-2505.7948</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1669,18 +1553,15 @@
         <v>180</v>
       </c>
       <c r="G39" t="n">
-        <v>-2505.7948</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1702,18 +1583,15 @@
         <v>16.8295</v>
       </c>
       <c r="G40" t="n">
-        <v>-2522.6243</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1735,18 +1613,15 @@
         <v>220.2381</v>
       </c>
       <c r="G41" t="n">
-        <v>-2302.3862</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1768,18 +1643,15 @@
         <v>39.2781</v>
       </c>
       <c r="G42" t="n">
-        <v>-2341.6643</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1801,18 +1673,15 @@
         <v>159</v>
       </c>
       <c r="G43" t="n">
-        <v>-2500.6643</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1834,18 +1703,15 @@
         <v>68.2567</v>
       </c>
       <c r="G44" t="n">
-        <v>-2500.6643</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1867,18 +1733,15 @@
         <v>79.7205</v>
       </c>
       <c r="G45" t="n">
-        <v>-2500.6643</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1900,18 +1763,15 @@
         <v>481.8447</v>
       </c>
       <c r="G46" t="n">
-        <v>-2982.509</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1933,18 +1793,15 @@
         <v>109.2249</v>
       </c>
       <c r="G47" t="n">
-        <v>-2873.2841</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1966,18 +1823,15 @@
         <v>103.5748</v>
       </c>
       <c r="G48" t="n">
-        <v>-2873.2841</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1999,18 +1853,15 @@
         <v>0.092</v>
       </c>
       <c r="G49" t="n">
-        <v>-2873.1921</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2032,18 +1883,15 @@
         <v>37.3015</v>
       </c>
       <c r="G50" t="n">
-        <v>-2910.4936</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2065,18 +1913,15 @@
         <v>120.1694</v>
       </c>
       <c r="G51" t="n">
-        <v>-2910.4936</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2098,18 +1943,15 @@
         <v>0.092</v>
       </c>
       <c r="G52" t="n">
-        <v>-2910.4016</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2131,18 +1973,15 @@
         <v>5.7001</v>
       </c>
       <c r="G53" t="n">
-        <v>-2916.1017</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2164,18 +2003,15 @@
         <v>0.0994</v>
       </c>
       <c r="G54" t="n">
-        <v>-2916.0023</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2197,18 +2033,15 @@
         <v>2</v>
       </c>
       <c r="G55" t="n">
-        <v>-2916.0023</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2230,18 +2063,15 @@
         <v>1.3969</v>
       </c>
       <c r="G56" t="n">
-        <v>-2916.0023</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2263,18 +2093,15 @@
         <v>97.7619</v>
       </c>
       <c r="G57" t="n">
-        <v>-3013.7642</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2296,18 +2123,15 @@
         <v>14.9668</v>
       </c>
       <c r="G58" t="n">
-        <v>-3028.731</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2329,18 +2153,15 @@
         <v>112.9045</v>
       </c>
       <c r="G59" t="n">
-        <v>-3141.6355</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2362,18 +2183,15 @@
         <v>4</v>
       </c>
       <c r="G60" t="n">
-        <v>-3137.6355</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2395,18 +2213,15 @@
         <v>1.4972</v>
       </c>
       <c r="G61" t="n">
-        <v>-3137.6355</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2428,18 +2243,15 @@
         <v>4.3916</v>
       </c>
       <c r="G62" t="n">
-        <v>-3133.2439</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2461,18 +2273,15 @@
         <v>41.5306</v>
       </c>
       <c r="G63" t="n">
-        <v>-3091.7133</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2494,18 +2303,15 @@
         <v>9.134600000000001</v>
       </c>
       <c r="G64" t="n">
-        <v>-3091.7133</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2527,18 +2333,15 @@
         <v>607.6567</v>
       </c>
       <c r="G65" t="n">
-        <v>-2484.0566</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2560,18 +2363,15 @@
         <v>230.9075</v>
       </c>
       <c r="G66" t="n">
-        <v>-2484.0566</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2593,18 +2393,15 @@
         <v>319.1841</v>
       </c>
       <c r="G67" t="n">
-        <v>-2484.0566</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2626,18 +2423,15 @@
         <v>0.092</v>
       </c>
       <c r="G68" t="n">
-        <v>-2483.9646</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2659,18 +2453,15 @@
         <v>89.3077</v>
       </c>
       <c r="G69" t="n">
-        <v>-2573.2723</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2692,18 +2483,15 @@
         <v>13.5015</v>
       </c>
       <c r="G70" t="n">
-        <v>-2573.2723</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2725,18 +2513,15 @@
         <v>7.0476</v>
       </c>
       <c r="G71" t="n">
-        <v>-2573.2723</v>
-      </c>
-      <c r="H71" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2758,18 +2543,15 @@
         <v>0.092</v>
       </c>
       <c r="G72" t="n">
-        <v>-2573.1803</v>
-      </c>
-      <c r="H72" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2791,18 +2573,15 @@
         <v>141.1169</v>
       </c>
       <c r="G73" t="n">
-        <v>-2714.2972</v>
-      </c>
-      <c r="H73" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2824,18 +2603,15 @@
         <v>17.2869</v>
       </c>
       <c r="G74" t="n">
-        <v>-2731.5841</v>
-      </c>
-      <c r="H74" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2857,18 +2633,15 @@
         <v>652.1522</v>
       </c>
       <c r="G75" t="n">
-        <v>-3383.7363</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2890,18 +2663,15 @@
         <v>125.3429</v>
       </c>
       <c r="G76" t="n">
-        <v>-3509.0792</v>
-      </c>
-      <c r="H76" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2923,18 +2693,15 @@
         <v>5</v>
       </c>
       <c r="G77" t="n">
-        <v>-3504.0792</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2956,18 +2723,15 @@
         <v>96</v>
       </c>
       <c r="G78" t="n">
-        <v>-3504.0792</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2989,18 +2753,15 @@
         <v>13.2</v>
       </c>
       <c r="G79" t="n">
-        <v>-3517.279199999999</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3022,18 +2783,15 @@
         <v>117.8906</v>
       </c>
       <c r="G80" t="n">
-        <v>-3635.1698</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3055,18 +2813,15 @@
         <v>40.3531</v>
       </c>
       <c r="G81" t="n">
-        <v>-3675.522899999999</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3088,18 +2843,15 @@
         <v>76.48180000000001</v>
       </c>
       <c r="G82" t="n">
-        <v>-3752.0047</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3121,18 +2873,15 @@
         <v>112.8936</v>
       </c>
       <c r="G83" t="n">
-        <v>-3752.0047</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3154,22 +2903,15 @@
         <v>38.1717</v>
       </c>
       <c r="G84" t="n">
-        <v>-3752.0047</v>
-      </c>
-      <c r="H84" t="n">
-        <v>1</v>
-      </c>
-      <c r="I84" t="n">
-        <v>5395</v>
-      </c>
-      <c r="J84" t="n">
-        <v>5395</v>
-      </c>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3191,26 +2933,19 @@
         <v>5.4559</v>
       </c>
       <c r="G85" t="n">
-        <v>-3746.5488</v>
+        <v>1</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
+        <v>5395</v>
       </c>
       <c r="I85" t="n">
         <v>5395</v>
       </c>
-      <c r="J85" t="n">
-        <v>5395</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3232,26 +2967,23 @@
         <v>47.1801</v>
       </c>
       <c r="G86" t="n">
-        <v>-3699.3687</v>
+        <v>1</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
+        <v>5430</v>
       </c>
       <c r="I86" t="n">
-        <v>5430</v>
-      </c>
-      <c r="J86" t="n">
         <v>5395</v>
       </c>
-      <c r="K86" t="inlineStr">
+      <c r="J86" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3273,26 +3005,23 @@
         <v>40.0977</v>
       </c>
       <c r="G87" t="n">
-        <v>-3739.466399999999</v>
+        <v>1</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
+        <v>5435</v>
       </c>
       <c r="I87" t="n">
-        <v>5435</v>
-      </c>
-      <c r="J87" t="n">
         <v>5395</v>
       </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3314,26 +3043,19 @@
         <v>19.8466</v>
       </c>
       <c r="G88" t="n">
-        <v>-3739.466399999999</v>
+        <v>1</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
+        <v>5415</v>
       </c>
       <c r="I88" t="n">
         <v>5415</v>
       </c>
-      <c r="J88" t="n">
-        <v>5395</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3355,26 +3077,23 @@
         <v>5.9517</v>
       </c>
       <c r="G89" t="n">
-        <v>-3733.514699999999</v>
+        <v>1</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
+        <v>5415</v>
       </c>
       <c r="I89" t="n">
         <v>5415</v>
       </c>
-      <c r="J89" t="n">
-        <v>5395</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3396,26 +3115,21 @@
         <v>83.5111</v>
       </c>
       <c r="G90" t="n">
-        <v>-3733.514699999999</v>
-      </c>
-      <c r="H90" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="n">
-        <v>5420</v>
-      </c>
-      <c r="J90" t="n">
-        <v>5395</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+        <v>5415</v>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3437,26 +3151,23 @@
         <v>43.4886</v>
       </c>
       <c r="G91" t="n">
-        <v>-3733.514699999999</v>
+        <v>1</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
+        <v>5420</v>
       </c>
       <c r="I91" t="n">
-        <v>5420</v>
-      </c>
-      <c r="J91" t="n">
-        <v>5395</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+        <v>5415</v>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3478,26 +3189,21 @@
         <v>17.5</v>
       </c>
       <c r="G92" t="n">
-        <v>-3751.014699999999</v>
-      </c>
-      <c r="H92" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="n">
-        <v>5420</v>
-      </c>
-      <c r="J92" t="n">
-        <v>5395</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+        <v>5415</v>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3519,26 +3225,21 @@
         <v>15.356</v>
       </c>
       <c r="G93" t="n">
-        <v>-3751.014699999999</v>
-      </c>
-      <c r="H93" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="n">
         <v>5415</v>
       </c>
-      <c r="J93" t="n">
-        <v>5395</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3560,26 +3261,23 @@
         <v>28.1268</v>
       </c>
       <c r="G94" t="n">
-        <v>-3751.014699999999</v>
+        <v>1</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
+        <v>5415</v>
       </c>
       <c r="I94" t="n">
         <v>5415</v>
       </c>
-      <c r="J94" t="n">
-        <v>5395</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3601,26 +3299,21 @@
         <v>207.1817</v>
       </c>
       <c r="G95" t="n">
-        <v>-3958.196399999999</v>
-      </c>
-      <c r="H95" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="n">
         <v>5415</v>
       </c>
-      <c r="J95" t="n">
-        <v>5395</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3642,26 +3335,21 @@
         <v>496.305</v>
       </c>
       <c r="G96" t="n">
-        <v>-3461.8914</v>
-      </c>
-      <c r="H96" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="n">
-        <v>5395</v>
-      </c>
-      <c r="J96" t="n">
-        <v>5395</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+        <v>5415</v>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3683,26 +3371,21 @@
         <v>5.9</v>
       </c>
       <c r="G97" t="n">
-        <v>-3455.991399999999</v>
-      </c>
-      <c r="H97" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="n">
-        <v>5420</v>
-      </c>
-      <c r="J97" t="n">
-        <v>5395</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+        <v>5415</v>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3724,24 +3407,21 @@
         <v>19.5202</v>
       </c>
       <c r="G98" t="n">
-        <v>-3436.471199999999</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>5395</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
+      <c r="I98" t="n">
+        <v>5415</v>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3763,26 +3443,21 @@
         <v>81.93689999999999</v>
       </c>
       <c r="G99" t="n">
-        <v>-3354.534299999999</v>
-      </c>
-      <c r="H99" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="n">
-        <v>5430</v>
-      </c>
-      <c r="J99" t="n">
-        <v>5395</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+        <v>5415</v>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3804,26 +3479,21 @@
         <v>105.3345</v>
       </c>
       <c r="G100" t="n">
-        <v>-3354.534299999999</v>
-      </c>
-      <c r="H100" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="n">
-        <v>5435</v>
-      </c>
-      <c r="J100" t="n">
-        <v>5395</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+        <v>5415</v>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3845,26 +3515,21 @@
         <v>105.1989</v>
       </c>
       <c r="G101" t="n">
-        <v>-3459.733199999999</v>
-      </c>
-      <c r="H101" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="n">
-        <v>5435</v>
-      </c>
-      <c r="J101" t="n">
-        <v>5395</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+        <v>5415</v>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3886,26 +3551,21 @@
         <v>24</v>
       </c>
       <c r="G102" t="n">
-        <v>-3435.733199999999</v>
-      </c>
-      <c r="H102" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="n">
-        <v>5405</v>
-      </c>
-      <c r="J102" t="n">
-        <v>5395</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+        <v>5415</v>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3927,26 +3587,21 @@
         <v>22.6766</v>
       </c>
       <c r="G103" t="n">
-        <v>-3435.733199999999</v>
-      </c>
-      <c r="H103" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="n">
-        <v>5435</v>
-      </c>
-      <c r="J103" t="n">
-        <v>5395</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+        <v>5415</v>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3968,26 +3623,21 @@
         <v>4.3266</v>
       </c>
       <c r="G104" t="n">
-        <v>-3431.406599999999</v>
-      </c>
-      <c r="H104" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="n">
-        <v>5435</v>
-      </c>
-      <c r="J104" t="n">
-        <v>5395</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+        <v>5415</v>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4009,26 +3659,21 @@
         <v>400</v>
       </c>
       <c r="G105" t="n">
-        <v>-3031.406599999999</v>
-      </c>
-      <c r="H105" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="n">
-        <v>5440</v>
-      </c>
-      <c r="J105" t="n">
-        <v>5395</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+        <v>5415</v>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4050,26 +3695,21 @@
         <v>1</v>
       </c>
       <c r="G106" t="n">
-        <v>-3030.406599999999</v>
-      </c>
-      <c r="H106" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="n">
-        <v>5450</v>
-      </c>
-      <c r="J106" t="n">
-        <v>5395</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+        <v>5415</v>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4091,24 +3731,21 @@
         <v>163.8688</v>
       </c>
       <c r="G107" t="n">
-        <v>-2866.537799999999</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>5395</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
+      <c r="I107" t="n">
+        <v>5415</v>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4130,24 +3767,21 @@
         <v>5</v>
       </c>
       <c r="G108" t="n">
-        <v>-2871.537799999999</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>5395</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
+      <c r="I108" t="n">
+        <v>5415</v>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4169,24 +3803,21 @@
         <v>1</v>
       </c>
       <c r="G109" t="n">
-        <v>-2870.537799999999</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>5395</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
+      <c r="I109" t="n">
+        <v>5415</v>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4208,24 +3839,21 @@
         <v>1</v>
       </c>
       <c r="G110" t="n">
-        <v>-2871.537799999999</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>5395</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
+      <c r="I110" t="n">
+        <v>5415</v>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4247,24 +3875,21 @@
         <v>7.0486</v>
       </c>
       <c r="G111" t="n">
-        <v>-2878.586399999999</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>5395</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
+      <c r="I111" t="n">
+        <v>5415</v>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4286,24 +3911,21 @@
         <v>2</v>
       </c>
       <c r="G112" t="n">
-        <v>-2876.586399999999</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>5395</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
+      <c r="I112" t="n">
+        <v>5415</v>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4325,24 +3947,21 @@
         <v>5.1973</v>
       </c>
       <c r="G113" t="n">
-        <v>-2876.586399999999</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>5395</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
+      <c r="I113" t="n">
+        <v>5415</v>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4364,24 +3983,21 @@
         <v>6.1602</v>
       </c>
       <c r="G114" t="n">
-        <v>-2882.746599999999</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>5395</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
+      <c r="I114" t="n">
+        <v>5415</v>
+      </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4403,24 +4019,21 @@
         <v>1</v>
       </c>
       <c r="G115" t="n">
-        <v>-2881.746599999999</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>5395</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
+      <c r="I115" t="n">
+        <v>5415</v>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4442,24 +4055,21 @@
         <v>1</v>
       </c>
       <c r="G116" t="n">
-        <v>-2880.746599999999</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>5395</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
+      <c r="I116" t="n">
+        <v>5415</v>
+      </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4481,24 +4091,21 @@
         <v>3</v>
       </c>
       <c r="G117" t="n">
-        <v>-2883.746599999999</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>5395</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
+      <c r="I117" t="n">
+        <v>5415</v>
+      </c>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4520,24 +4127,21 @@
         <v>61.1281</v>
       </c>
       <c r="G118" t="n">
-        <v>-2883.746599999999</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>5395</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
+      <c r="I118" t="n">
+        <v>5415</v>
+      </c>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4559,24 +4163,21 @@
         <v>11.9495</v>
       </c>
       <c r="G119" t="n">
-        <v>-2871.797099999999</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>5395</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
+      <c r="I119" t="n">
+        <v>5415</v>
+      </c>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4598,24 +4199,21 @@
         <v>5.667</v>
       </c>
       <c r="G120" t="n">
-        <v>-2877.464099999999</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>5395</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
+      <c r="I120" t="n">
+        <v>5415</v>
+      </c>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4637,24 +4235,21 @@
         <v>0.092</v>
       </c>
       <c r="G121" t="n">
-        <v>-2877.372099999999</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>5395</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
+      <c r="I121" t="n">
+        <v>5415</v>
+      </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4676,24 +4271,21 @@
         <v>150.3187</v>
       </c>
       <c r="G122" t="n">
-        <v>-3027.690799999998</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>5395</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
+      <c r="I122" t="n">
+        <v>5415</v>
+      </c>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4715,24 +4307,21 @@
         <v>66.0626</v>
       </c>
       <c r="G123" t="n">
-        <v>-2961.628199999998</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>5395</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
+      <c r="I123" t="n">
+        <v>5415</v>
+      </c>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4754,24 +4343,21 @@
         <v>31.6</v>
       </c>
       <c r="G124" t="n">
-        <v>-2961.628199999998</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>5395</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
+      <c r="I124" t="n">
+        <v>5415</v>
+      </c>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4793,24 +4379,21 @@
         <v>8.0665</v>
       </c>
       <c r="G125" t="n">
-        <v>-2961.628199999998</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>5395</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
+      <c r="I125" t="n">
+        <v>5415</v>
+      </c>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4832,24 +4415,21 @@
         <v>704.1126</v>
       </c>
       <c r="G126" t="n">
-        <v>-3665.740799999998</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>5395</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
+      <c r="I126" t="n">
+        <v>5415</v>
+      </c>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4871,24 +4451,21 @@
         <v>355.5409</v>
       </c>
       <c r="G127" t="n">
-        <v>-3310.199899999998</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>5395</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
+      <c r="I127" t="n">
+        <v>5415</v>
+      </c>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4910,24 +4487,21 @@
         <v>200.3194</v>
       </c>
       <c r="G128" t="n">
-        <v>-3109.880499999998</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>5395</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
+      <c r="I128" t="n">
+        <v>5415</v>
+      </c>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4949,24 +4523,21 @@
         <v>71.4104</v>
       </c>
       <c r="G129" t="n">
-        <v>-3109.880499999998</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>5395</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
+      <c r="I129" t="n">
+        <v>5415</v>
+      </c>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4988,24 +4559,21 @@
         <v>6.6482</v>
       </c>
       <c r="G130" t="n">
-        <v>-3109.880499999998</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>5395</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
+      <c r="I130" t="n">
+        <v>5415</v>
+      </c>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5027,24 +4595,21 @@
         <v>9.396100000000001</v>
       </c>
       <c r="G131" t="n">
-        <v>-3119.276599999998</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>5395</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
+      <c r="I131" t="n">
+        <v>5415</v>
+      </c>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5066,24 +4631,21 @@
         <v>41.5896</v>
       </c>
       <c r="G132" t="n">
-        <v>-3077.686999999999</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>5395</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
+      <c r="I132" t="n">
+        <v>5415</v>
+      </c>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5105,24 +4667,21 @@
         <v>25.4186</v>
       </c>
       <c r="G133" t="n">
-        <v>-3077.686999999999</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>5395</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
+      <c r="I133" t="n">
+        <v>5415</v>
+      </c>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5144,24 +4703,21 @@
         <v>137.0512</v>
       </c>
       <c r="G134" t="n">
-        <v>-3077.686999999999</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>5395</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
+      <c r="I134" t="n">
+        <v>5415</v>
+      </c>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5183,24 +4739,21 @@
         <v>24</v>
       </c>
       <c r="G135" t="n">
-        <v>-3101.686999999999</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>5395</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
+      <c r="I135" t="n">
+        <v>5415</v>
+      </c>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5222,24 +4775,21 @@
         <v>18.6567</v>
       </c>
       <c r="G136" t="n">
-        <v>-3083.030299999999</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>5395</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
+      <c r="I136" t="n">
+        <v>5415</v>
+      </c>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5261,24 +4811,21 @@
         <v>5.9936</v>
       </c>
       <c r="G137" t="n">
-        <v>-3077.036699999999</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>5395</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
+      <c r="I137" t="n">
+        <v>5415</v>
+      </c>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5300,24 +4847,21 @@
         <v>6.2538</v>
       </c>
       <c r="G138" t="n">
-        <v>-3077.036699999999</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>5395</v>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
+      <c r="I138" t="n">
+        <v>5415</v>
+      </c>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5339,24 +4883,21 @@
         <v>0.0001</v>
       </c>
       <c r="G139" t="n">
-        <v>-3077.036699999999</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>5395</v>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
+      <c r="I139" t="n">
+        <v>5415</v>
+      </c>
+      <c r="J139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5378,24 +4919,21 @@
         <v>5.8</v>
       </c>
       <c r="G140" t="n">
-        <v>-3077.036699999999</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>5395</v>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
+      <c r="I140" t="n">
+        <v>5415</v>
+      </c>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5417,24 +4955,21 @@
         <v>114.9969</v>
       </c>
       <c r="G141" t="n">
-        <v>-3192.033599999999</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>5395</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
+      <c r="I141" t="n">
+        <v>5415</v>
+      </c>
+      <c r="J141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5456,24 +4991,21 @@
         <v>78.0847</v>
       </c>
       <c r="G142" t="n">
-        <v>-3192.033599999999</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>5395</v>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
+      <c r="I142" t="n">
+        <v>5415</v>
+      </c>
+      <c r="J142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5495,24 +5027,21 @@
         <v>1.6128</v>
       </c>
       <c r="G143" t="n">
-        <v>-3192.033599999999</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>5395</v>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
+      <c r="I143" t="n">
+        <v>5415</v>
+      </c>
+      <c r="J143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5534,24 +5063,21 @@
         <v>1.4213</v>
       </c>
       <c r="G144" t="n">
-        <v>-3193.454899999999</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>5395</v>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
+      <c r="I144" t="n">
+        <v>5415</v>
+      </c>
+      <c r="J144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5573,24 +5099,21 @@
         <v>155.2078</v>
       </c>
       <c r="G145" t="n">
-        <v>-3348.662699999999</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>5395</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
+      <c r="I145" t="n">
+        <v>5415</v>
+      </c>
+      <c r="J145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5612,24 +5135,21 @@
         <v>581.3149</v>
       </c>
       <c r="G146" t="n">
-        <v>-2767.347799999999</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>5395</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
+      <c r="I146" t="n">
+        <v>5415</v>
+      </c>
+      <c r="J146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5651,24 +5171,21 @@
         <v>11.2</v>
       </c>
       <c r="G147" t="n">
-        <v>-2778.547799999999</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>5395</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
+      <c r="I147" t="n">
+        <v>5415</v>
+      </c>
+      <c r="J147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5690,24 +5207,21 @@
         <v>176.5552</v>
       </c>
       <c r="G148" t="n">
-        <v>-2955.102999999999</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>5395</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
+      <c r="I148" t="n">
+        <v>5415</v>
+      </c>
+      <c r="J148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5729,24 +5243,21 @@
         <v>37.7808</v>
       </c>
       <c r="G149" t="n">
-        <v>-2955.102999999999</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>5395</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
+      <c r="I149" t="n">
+        <v>5415</v>
+      </c>
+      <c r="J149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5768,24 +5279,21 @@
         <v>6.757</v>
       </c>
       <c r="G150" t="n">
-        <v>-2955.102999999999</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>5395</v>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
+      <c r="I150" t="n">
+        <v>5415</v>
+      </c>
+      <c r="J150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5807,24 +5315,21 @@
         <v>100.41</v>
       </c>
       <c r="G151" t="n">
-        <v>-2955.102999999999</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>5395</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
+      <c r="I151" t="n">
+        <v>5415</v>
+      </c>
+      <c r="J151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5846,24 +5351,21 @@
         <v>6.6</v>
       </c>
       <c r="G152" t="n">
-        <v>-2961.702999999999</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>5395</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
+      <c r="I152" t="n">
+        <v>5415</v>
+      </c>
+      <c r="J152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5885,24 +5387,21 @@
         <v>822.3593</v>
       </c>
       <c r="G153" t="n">
-        <v>-2139.343699999999</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>5395</v>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
+      <c r="I153" t="n">
+        <v>5415</v>
+      </c>
+      <c r="J153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5924,24 +5423,21 @@
         <v>27</v>
       </c>
       <c r="G154" t="n">
-        <v>-2139.343699999999</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="inlineStr"/>
-      <c r="J154" t="n">
-        <v>5395</v>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
+      <c r="I154" t="n">
+        <v>5415</v>
+      </c>
+      <c r="J154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5963,24 +5459,21 @@
         <v>0.0268</v>
       </c>
       <c r="G155" t="n">
-        <v>-2139.343699999999</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="inlineStr"/>
-      <c r="J155" t="n">
-        <v>5395</v>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
+      <c r="I155" t="n">
+        <v>5415</v>
+      </c>
+      <c r="J155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6002,24 +5495,21 @@
         <v>1</v>
       </c>
       <c r="G156" t="n">
-        <v>-2138.343699999999</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="inlineStr"/>
-      <c r="J156" t="n">
-        <v>5395</v>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
+      <c r="I156" t="n">
+        <v>5415</v>
+      </c>
+      <c r="J156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6041,24 +5531,21 @@
         <v>123.4039</v>
       </c>
       <c r="G157" t="n">
-        <v>-2261.747599999999</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="inlineStr"/>
-      <c r="J157" t="n">
-        <v>5395</v>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
+      <c r="I157" t="n">
+        <v>5415</v>
+      </c>
+      <c r="J157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6080,24 +5567,21 @@
         <v>91.01562302000001</v>
       </c>
       <c r="G158" t="n">
-        <v>-2170.731976979999</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="inlineStr"/>
-      <c r="J158" t="n">
-        <v>5395</v>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
+      <c r="I158" t="n">
+        <v>5415</v>
+      </c>
+      <c r="J158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
